--- a/formated_outputs/execution_log/crossdisc/qwen/qwen-水生生态系统治理.xlsx
+++ b/formated_outputs/execution_log/crossdisc/qwen/qwen-水生生态系统治理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>task_name</t>
   </si>
@@ -38,21 +38,21 @@
   </si>
   <si>
     <t>Final_Solution_Proposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地理学教授
+</t>
   </si>
   <si>
     <t xml:space="preserve">生物学教授
 </t>
   </si>
   <si>
-    <t>Crew Manager</t>
-  </si>
-  <si>
     <t xml:space="preserve">化学教授
 </t>
   </si>
   <si>
-    <t xml:space="preserve">地理学教授
-</t>
+    <t>Crew Manager</t>
   </si>
   <si>
     <t xml:space="preserve">物理学教授
@@ -63,376 +63,573 @@
 </t>
   </si>
   <si>
-    <t>根据用户提出的问题：水生生态系统治理，提炼出其中核心的3-5个子问题，每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。</t>
+    <t xml:space="preserve">人工智能教授
+</t>
+  </si>
+  <si>
+    <t>水生生态系统治理涉及哪些关键领域和问题？请提供3-5个核心问题，这些问题是解决水生生态系统治理的基础。</t>
+  </si>
+  <si>
+    <t>根据以下核心问题，提供具体的分析和建议：1. 水质管理和污染控制；2. 生物多样性的保护；3. 生态流量的保障；4. 土地利用变化对水环境的影响；5. 气候变化下的适应性管理。</t>
+  </si>
+  <si>
+    <t>针对水质管理和污染控制这一核心问题，提供具体的化学分析和建议。</t>
+  </si>
+  <si>
+    <t>针对土地利用变化对水环境的影响这一核心问题，提供具体的地理学分析和建议。</t>
   </si>
   <si>
     <t xml:space="preserve">请委派一位学科专家，根据用户提出的问题：水生生态系统治理，提炼出其中核心的3-5个子问题，用中文回答。 每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。
 </t>
   </si>
   <si>
-    <t>水生生态系统中关键物种的保护与恢复</t>
-  </si>
-  <si>
-    <t>水质管理与污染控制</t>
-  </si>
-  <si>
-    <t>生态系统的生物多样性和功能之间的关系</t>
-  </si>
-  <si>
-    <t>社会经济因素对水生生态系统治理的影响</t>
-  </si>
-  <si>
-    <t>气候变化下的水生生态系统适应策略</t>
+    <t>针对水质管理和污染控制，提供具体的分析和建议。包括工业废水、农业化肥和农药、城市生活污水的化学分析和处理建议。</t>
+  </si>
+  <si>
+    <t>针对生物多样性的保护，提供具体的分析和建议。包括物种多样性、遗传多样性和生态系统多样性的保护措施。</t>
+  </si>
+  <si>
+    <t>针对生态流量的保障，提供具体的分析和建议。包括生态流量的定义、重要性，以及如何科学管理和保障生态流量的具体措施。</t>
+  </si>
+  <si>
+    <t>针对土地利用变化对水环境的影响，提供具体的分析和建议。包括地表径流变化、水质污染、生态系统破坏、气候变化的影响等方面。</t>
+  </si>
+  <si>
+    <t>针对气候变化下的适应性管理，提供具体的分析和建议。包括气候变化对水生生态系统的影响，以及应对措施。</t>
   </si>
   <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择高度相关的多个子问题，进行全面深入的分析和解决，用中文回答。 给出的解决方案应足够专业，尽量具体、具备逻辑性。要求每个学科专家都进行回答，并且所有专家回答的问题集合能覆盖所有子问题。 当前主问题为：水生生态系统治理
 </t>
   </si>
   <si>
-    <t>基于您的学科知识，选择与水生生态系统治理相关的子问题，并从辅助学科的角度提供补充性的解决方案，突出您学科的独特贡献以及与已知视角之间的互补关系。</t>
+    <t>基于物理学的视角，水生生态系统治理中有哪些新的变量、机制或模型可以考虑，以提高水质管理和污染控制的效率？</t>
+  </si>
+  <si>
+    <t>基于数学的视角，水生生态系统治理中可以应用哪些数学模型和方法，以优化和量化治理策略？</t>
+  </si>
+  <si>
+    <t>基于人工智能的视角，水生生态系统治理中可以应用哪些技术手段和方法，以优化治理策略和提高治理效率？</t>
+  </si>
+  <si>
+    <t>基于物理学、数学和人工智能的视角，整理一份关于水生生态系统治理的补充性分析报告。报告应包括新的变量、机制、模型或可落地路径，用中文回答。</t>
   </si>
   <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择相关的多个子问题，从辅助学科的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，用中文回答。 回答应突出你学科的独特贡献以及与已知视角之间的互补关系。 当前主问题为：水生生态系统治理
 </t>
   </si>
   <si>
-    <t>您对水生生态系统治理中关键物种的保护与恢复有什么具体建议？</t>
-  </si>
-  <si>
-    <t>您对水生生态系统治理中的水动力学与污染物扩散模型，以及气候变化下的水文循环模拟有什么具体建议？</t>
-  </si>
-  <si>
-    <t>您对水生生态系统治理中的水质管理和污染控制，以及生态修复材料的开发和环境友好型农药的研发有什么具体建议？</t>
-  </si>
-  <si>
-    <t>请根据以下信息，整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，并撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、“拟解决的科学问题”、“拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。以下是各个领域的专家提供的建议：1. 生物学教授：(1) 识别关键物种，通过生态学调查和种群动态研究确定生态系统中的关键物种。(2) 制定保护策略，建立保护区或管理区，减少人类活动的干扰，实施种群复壮计划，开展栖息地恢复工作。(3) 持续的生态监测，定期的生物多样性调查、水质检测和生态健康评估。(4) 社会经济与政策支持，政府制定有利于生态保护的政策，提供必要的资金支持，通过宣传教育提高公众的环保意识。(5) 适应性管理与气候变化应对，建立生态走廊，提高物种的迁移能力，加强极端气候事件的预警和应对能力。2. 物理学教授：(1) 构建精确的水动力学模型，利用Navier-Stokes方程描述流体的运动，考虑温度、盐度等参数的动态变化，采用高分辨率的数值模拟技术。(2) 开发污染物扩散模型，考虑污染物的物理化学性质和生物作用，预测不同条件下的污染物浓度分布。(3) 气候变化下的水文循环模拟，使用全球气候模型的输出数据，评估降水模式、蒸发量、径流、地下水补给等的变化，考虑极端天气事件的影响。(4) 研究生态系统响应与反馈机制，模拟不同情景下的生态系统响应。(5) 跨学科合作与社会经济因素考量，确保治理措施的可行性和可持续性。3. 化学教授：(1) 水质管理和污染控制，实施严格的排放标准，采用先进的处理技术，建立水质监测网络，实时监控水质变化。(2) 生态修复，恢复水生植物和底栖生物的多样性，采用生物修复技术。(3) 开发生态修复材料，研发环境友好型修复材料，开发高效吸附材料，研究智能修复材料。(4) 环境友好型农药的研发，加大生物农药的研发力度，开发农药缓释技术，实现精准施药。(5) 综合性解决方案，多学科合作，考虑社会经济因素。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">请你整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：水生生态系统治理
+    <t>整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、“拟解决的科学问题”、“拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请委派一位和课题最相关的学科专家，整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：水生生态系统治理
 </t>
   </si>
   <si>
-    <t>针对水生生态系统治理这一复杂议题，可以从以下几个核心子问题入手，这些子问题不仅涵盖了治理的关键方面，而且每个子问题都具有具体性和针对性，适合不同学科的专家进行深入分析：
-1. **水生生态系统中关键物种的保护与恢复**：这一问题需要生态学家和保护生物学家共同研究，确定哪些物种是生态系统中的关键物种，它们对生态系统结构和功能的重要性，以及如何通过保护和恢复这些物种来维持或恢复生态系统的健康状态。此外，还需考虑人类活动对这些物种的影响，以及如何减少负面影响。
-2. **水质管理与污染控制**：化学家、环境科学家和水文学家需要合作，评估水体中的污染物类型、来源及浓度，研究这些污染物对水生生态系统的影响，并提出有效的水质管理和污染控制策略。这包括减少污染物排放、提高污水处理效率、实施水源地保护等措施。
-3. **生态系统的生物多样性和功能之间的关系**：这一问题需要生态学家、系统生物学家和遗传学家的合作，研究水生生态系统中生物多样性的现状及其变化趋势，探索生物多样性和生态系统功能之间的关系，以及如何利用这种关系来指导生态恢复工作。
-4. **社会经济因素对水生生态系统治理的影响**：经济学家、社会学家和政策分析师可以分析不同社会经济活动对水生生态系统的压力，评估现有政策的效果，提出促进可持续利用水生资源和保护生态系统的政策建议。这包括对渔业、农业、旅游等行业的管理，以及公众参与机制的建立。
-5. **气候变化下的水生生态系统适应策略**：气候学家、生态学家和环境规划师需要共同探讨气候变化对水生生态系统的影响，评估不同区域的脆弱性，制定适应策略，以减少气候变化对生态系统及其服务的负面影响。这包括建立预警系统、调整保护区域、实施生态工程等措施。
-这些问题之间相互关联，构成了水生生态系统治理的基础。每个子问题的深入研究将有助于整体方案的形成，促进水生生态系统的健康与可持续发展。</t>
-  </si>
-  <si>
-    <t>在水生生态系统的保护与恢复工作中，确定关键物种及其重要性是首要任务。关键物种是指那些对于生态系统结构和功能具有不成比例影响的物种，它们可能包括顶级捕食者、关键猎物物种、具有重要生态工程作用的物种或在生物地球化学循环中扮演重要角色的物种。例如，在珊瑚礁生态系统中，珊瑚是关键物种，因为它们构建了整个生态系统的物理结构；而在河流系统中，某些鱼类通过挖掘河床和控制植物生长的方式扮演着关键角色。
-为了保护和恢复这些关键物种，首先需要进行详尽的生态调查，以确定哪些物种是关键物种，以及它们面临的主要威胁。这通常涉及长期的监测项目，包括物种的分布、数量、年龄结构、繁殖率、食物网关系等。通过这些数据，科学家可以建立模型来预测物种对生态系统的影响，以及它们可能对环境变化的响应。
-一旦确定了关键物种及其面临的威胁，就可以制定有针对性的保护策略。这些策略可能包括：
-1. **栖息地保护与恢复**：保护现有栖息地不受破坏，对于已经退化的栖息地，采取措施进行恢复，如重新种植植被、清理污染、重建物理结构等。
-2. **限制人类活动**：减少污染、过度捕捞、非法狩猎、外来物种引入等对关键物种的负面影响。例如，通过设立保护区和禁渔期来保护濒危物种。
-3. **生态工程**：对于已经严重退化的生态系统，可以采用生态工程方法，如人工建造珊瑚礁、河流修复等，来加速生态系统的恢复。
-4. **公众教育与参与**：提高公众对水生生态系统保护的认识，鼓励社区参与保护活动，培养环境保护意识。
-5. **法律与政策支持**：推动相关法律法规的制定和实施，为保护工作提供法律保障。
-此外，保护和恢复关键物种的工作需要跨学科的合作，包括生态学、环境科学、社会学、经济学等领域的专家共同参与，以确保保护措施的有效性和可持续性。通过科学的方法和全社会的共同努力，我们可以有效地保护水生生态系统中的关键物种，从而维持或恢复生态系统的健康状态，保障生物多样性和生态服务功能的持续供给。</t>
-  </si>
-  <si>
-    <t>在水质管理和污染控制方面，化学家、环境科学家和水文学家的合作至关重要。首先，我们需要对水体中的污染物类型进行精确的分析。这涉及到使用高效液相色谱、气相色谱-质谱联用等先进的分析技术来识别污染物，如重金属、有机污染物、塑料微粒等。通过这些技术，我们可以确定污染物的来源，例如工业排放、农业活动或城市径流。
-了解污染物的来源后，我们还需要评估这些污染物的浓度，并研究它们对水生生态系统的影响。这包括评估污染物对水生生物的毒性作用、对生态系统结构和功能的影响，以及污染物在水体中的迁移转化规律。例如，某些重金属可以通过食物链在生物体内富集，导致长期的生态问题。
-基于上述研究，我们可以提出有效的水质管理和污染控制策略。这包括：
-1. **减少污染物排放**：通过优化工业生产过程、减少农业化学品的使用、提高城市污水处理效率等措施，减少污染源的排放。
-2. **提高污水处理效率**：研究和开发高效的污水处理技术，如生物处理、高级氧化技术、膜处理等，以去除水中的有害物质，确保排放水质符合标准。
-3. **实施水源地保护**：划定水源保护区，限制污染活动，加强对水源地的监测与管理，保护水质不受污染。
-4. **生态修复**：对于已受污染的水体，可以采用生态修复技术，如植物修复、微生物修复等，利用自然界的生态系统服务功能来降解或吸附污染物，恢复水体的生态平衡。
-5. **公众教育和参与**：提高公众对水质保护的意识，鼓励公众参与水质监测和保护活动，形成社会共治的良好局面。
-通过这些综合措施，我们可以有效地管理和控制水质污染，保护水生生态系统，确保水资源的可持续利用。</t>
-  </si>
-  <si>
-    <t>在探讨生态系统中生物多样性和功能之间的关系时，我们首先需要理解这两个概念的定义。生物多样性指的是在特定生态系统中物种的丰富度、均匀度以及遗传多样性的总和。而生态系统功能则包括了物质循环、能量流动、初级生产力、分解速率等一系列过程，这些过程共同维持着生态系统的健康和稳定。生物多样性和生态系统功能之间的关系可以分为三个主要方面：
-1. **生物多样性对生态系统功能的影响**：大量的实验证据表明，生物多样性高的生态系统通常具有更高的生产力、更强的抵抗力和恢复力。这是因为不同的物种在生态系统中扮演着不同的角色，它们之间通过复杂的相互作用（如捕食、共生、竞争）共同维持生态系统的稳定。例如，在一个生物多样性丰富的水生生态系统中，不同种类的浮游生物、底栖生物和鱼类能够更有效地利用资源，提高生态系统的生产力和物质循环效率。
-2. **生态系统功能对生物多样性的影响**：生态系统功能的改变也会反过来影响生物多样性。例如，如果一个水生生态系统的物质循环速率因为污染而下降，那么某些对污染物敏感的物种可能会减少或消失，导致生物多样性的降低。反之，健康的生态系统功能有助于维持生物多样性，通过提供多样化的栖息地和食物来源支持更多物种的共存。
-3. **生物多样性和生态系统功能之间的相互作用对生态恢复的影响**：在生态恢复项目中，利用生物多样性和生态系统功能之间的正向关系可以更有效地恢复受损生态系统。例如，通过引入关键物种或恢复受损的生物群落结构，可以促进生态系统的自我修复能力，加速恢复过程。同时，维持和提高生物多样性也是保障生态系统长期稳定性和功能的关键。
-综上所述，生物多样性和生态系统功能之间存在着密切的相互作用。为了指导生态恢复工作，我们需要深入了解这些关系，通过科学的方法评估生态系统的健康状态，制定合理的保护和恢复策略。这样做不仅有助于恢复受损的生态系统，还能提高生态系统的抵抗力和恢复力，为人类社会的可持续发展提供支持。</t>
-  </si>
-  <si>
-    <t>社会经济因素对水生生态系统治理有着深远的影响。这些因素不仅决定了人类活动的类型和规模，还直接影响到水生生态系统的健康和可持续性。以下是对社会经济因素如何影响水生生态系统治理的分析，以及基于此的政策建议。
-1. **渔业管理**：
-- **过度捕捞**：过度捕捞是导致水生生物多样性下降的主要原因之一。社会经济需求的增长，特别是人口增长和对海鲜需求的增加，促进了渔业的扩张，但缺乏有效的管理措施导致了渔业资源的枯竭。
-- **政策建议**：实施科学的渔业配额制度，限制捕捞量，保护关键的繁殖期和繁殖地。同时，加大对非法捕捞的打击力度，确保渔业的可持续发展。
-2. **农业活动**：
-- **化肥和农药使用**：农业生产过程中大量使用的化肥和农药，通过地表径流进入水体，造成水体富营养化和污染，破坏水生态系统。
-- **政策建议**：推广生态农业，减少化肥和农药的使用，鼓励农民使用有机肥料和生物控制方法。建立农业面源污染监测体系，加强对农业污染的监管。
-3. **旅游业发展**：
-- **旅游活动的环境影响**：旅游业的发展，特别是沿海和水边地区的旅游活动，可能导致水质恶化、生物栖息地破坏等问题。游客的增加还可能带来垃圾和废水处理问题。
-- **政策建议**：制定可持续旅游政策，限制敏感区域的旅游开发，加强旅游区的环境管理和游客教育。推动绿色旅游，鼓励使用环保交通工具和设施。
-4. **公众参与机制**：
-- **公众意识与参与**：提高公众对水生生态系统保护的意识，鼓励公众参与保护活动，可以有效促进水生生态系统的治理。
-- **政策建议**：加强环保教育，提高社会对水生生态系统重要性的认识。建立公众参与的平台，包括志愿者项目和社区保护计划，确保公众能够参与决策过程。
-5. **综合管理**：
-- **跨部门合作**：水生生态系统的治理涉及多个部门，包括渔业、农业、交通、环保等。缺乏协调的管理可能导致政策效果大打折扣。
-- **政策建议**：建立跨部门的协调机制，确保各部门之间的信息共享和政策协同。制定综合管理规划，统筹考虑经济发展和生态保护的平衡。
-6. **科技创新**：
-- **技术应用**：利用遥感技术、GIS等现代技术手段，可以更准确地监测水生生态系统的健康状况，为管理决策提供科学依据。
-- **政策建议**：加大对水生生态研究的投入，支持科技创新。建立数据共享平台，促进科研成果的转化应用。
-综上所述，社会经济因素对水生生态系统的治理有着复杂而深远的影响。通过科学的管理措施和政策支持，可以有效缓解这些因素带来的负面影响，实现水生资源的可持续利用和生态系统的保护。</t>
-  </si>
-  <si>
-    <t>在应对气候变化对水生生态系统的影响时，我们需要采取以下适应策略，以确保生态系统的稳定性和服务功能：
-1. **建立预警系统**：利用物理模型和统计方法，我们可以预测未来的气候变化趋势，包括温度升高、降水模式改变等。这些预测对于确定哪些水域可能面临最大的风险至关重要。例如，可以通过模拟不同气候情景下的水温变化，评估鱼类和其他水生生物的生存环境是否会受到威胁。预警系统的建立还可以帮助我们监测水体的化学和生物指标，及时发现异常情况，如藻华爆发或溶解氧水平下降，从而采取措施防止生态灾难。
-2. **调整保护区域**：气候变化可能导致某些物种的分布区域发生变化，原有的保护区域可能不再适合这些物种的生存。因此，需要根据物种分布的新模式，重新评估并调整保护区域的位置和范围。这不仅包括水生生物的栖息地，也包括那些对水体健康至关重要的湿地、河流源头等重要生态区域。保护区域的调整应该基于详细的生态调查和模型预测，确保这些区域的生物多样性和生态服务功能得到长期保护。
-3. **实施生态工程**：为了提高水生生态系统的抗逆性，可以通过实施生态工程，如恢复受损的湿地、建设人工湿地、改善河岸带植被等措施。这些生态工程不仅能帮助生态系统适应气候变化，还能提供额外的生态服务，如净化水质、减少洪水风险等。实施这些工程时，需要充分考虑生态系统的特点和需求，确保工程方案的科学性和有效性。
-4. **促进跨学科合作**：气候变化对水生生态系统的影响是一个复杂的跨学科问题，需要气候学家、生态学家、环境规划师、水文学家等多学科专家的共同合作。通过建立多学科的协作平台，可以更好地整合各学科的知识和技术，为制定适应策略提供科学依据。此外，还应该加强与政策制定者、社区居民等利益相关方的沟通，确保适应策略的有效实施。
-5. **加强科研和监测**：为了更好地应对气候变化带来的挑战，需要不断加强相关领域的科学研究，包括气候变化的机制、生态系统的响应机制、适应策略的有效性评估等。同时，建立长期的环境监测体系，定期收集和分析环境数据，对于评估适应措施的效果、及时调整适应策略具有重要意义。
-通过上述策略的实施，可以有效减少气候变化对水生生态系统及其服务的负面影响，保护和恢复水生生态系统的健康，为人类社会的可持续发展提供支持。</t>
-  </si>
-  <si>
-    <t>针对水生生态系统治理这一复杂议题，我们可以从以下几个核心子问题入手，每个子问题都由不同学科的专家进行了深入分析和提出了解决方案。以下是综合各个专家意见后的全面解决方案：
-1. **水生生态系统中关键物种的保护与恢复**：
-   - **确定关键物种**：通过生态调查，确定生态系统中的关键物种，评估它们对生态系统结构和功能的重要性。
-   - **保护措施**：实施栖息地保护与恢复，限制人类活动，如减少污染、过度捕捞、非法狩猎等。采用生态工程方法，如人工建造珊瑚礁、河流修复等。提高公众教育和参与，推动相关法律法规的制定和实施。
-2. **水质管理与污染控制**：
-   - **污染物分析**：使用高效液相色谱、气相色谱-质谱联用等技术，识别水体中的污染物类型、来源及浓度。
-   - **影响评估**：评估污染物对水生生态系统的影响，包括对水生生物的毒性作用、生态系统结构和功能的影响。
-   - **管理策略**：减少污染物排放，提高污水处理效率，实施水源地保护，采用生态修复技术，如植物修复、微生物修复等。提高公众教育和参与，形成社会共治的良好局面。
-3. **生态系统的生物多样性和功能之间的关系**：
-   - **生物多样性对生态系统功能的影响**：高生物多样性的生态系统通常具有更高的生产力、更强的抵抗力和恢复力。通过复杂的相互作用（如捕食、共生、竞争）维持生态系统的稳定。
-   - **生态系统功能对生物多样性的影响**：生态系统功能的改变会影响生物多样性，例如，污染导致的物质循环速率下降会减少某些物种的数量。
-   - **生态恢复**：利用生物多样性和生态系统功能之间的正向关系，通过引入关键物种或恢复受损的生物群落结构，促进生态系统的自我修复能力，加速恢复过程。
-4. **社会经济因素对水生生态系统治理的影响**：
-   - **渔业管理**：实施科学的渔业配额制度，限制捕捞量，保护关键的繁殖期和繁殖地。加大对非法捕捞的打击力度，确保渔业的可持续发展。
-   - **农业活动**：推广生态农业，减少化肥和农药的使用，建立农业面源污染监测体系，加强对农业污染的监管。
-   - **旅游业发展**：制定可持续旅游政策，限制敏感区域的旅游开发，加强旅游区的环境管理和游客教育。推动绿色旅游，鼓励使用环保交通工具和设施。
-   - **公众参与机制**：加强环保教育，提高社会对水生生态系统重要性的认识。建立公众参与的平台，包括志愿者项目和社区保护计划，确保公众能够参与决策过程。
-   - **综合管理**：建立跨部门的协调机制，确保各部门之间的信息共享和政策协同。制定综合管理规划，统筹考虑经济发展和生态保护的平衡。
-   - **科技创新**：加大对水生生态研究的投入，支持科技创新。建立数据共享平台，促进科研成果的转化应用。
-5. **气候变化下的水生生态系统适应策略**：
-   - **建立预警系统**：利用物理模型和统计方法预测未来的气候变化趋势，建立预警系统，监测水体的化学和生物指标，及时发现异常情况。
-   - **调整保护区域**：根据物种分布的新模式，重新评估并调整保护区域的位置和范围，确保这些区域的生物多样性和生态服务功能得到长期保护。
-   - **实施生态工程**：通过恢复受损的湿地、建设人工湿地、改善河岸带植被等措施，提高水生生态系统的抗逆性，提供额外的生态服务。
-   - **促进跨学科合作**：建立多学科的协作平台，整合各学科的知识和技术，为制定适应策略提供科学依据。加强与政策制定者、社区居民等利益相关方的沟通，确保适应策略的有效实施。
-   - **加强科研和监测**：不断加强相关领域的科学研究，建立长期的环境监测体系，定期收集和分析环境数据，评估适应措施的效果，及时调整适应策略。
-通过上述综合措施，我们可以有效地管理和治理水生生态系统，保护和恢复生态系统的健康状态，保障生物多样性和生态服务功能的持续供给，实现水资源的可持续利用。</t>
-  </si>
-  <si>
-    <t>在水生生态系统治理的议题上，从生物学的角度出发，我们可以更加深入地探索生态系统内部的生物多样性与生态功能之间的关系，这对于提高治理措施的有效性至关重要。具体来说，可以通过以下几个子问题的探讨，提供补充性的解决方案：
-1. **生态网络的构建与分析**：利用生态学原理，研究水生生态系统中的物种相互作用，如食物网结构、能量流动和物质循环。这不仅有助于我们理解生态系统如何维持自身的稳定性和生产力，还能揭示关键物种或关键生态过程对生态系统功能的影响。例如，某些浮游生物可能在去除水体中的有害物质方面发挥重要作用，了解这一点可以指导我们在水质净化过程中采取更为有效的措施。
-2. **生物监测与指示物种的选择**：生物多样性是水生生态系统健康状况的良好指标。选择合适的指示物种来监测水质变化和生态系统的健康状态，可以为治理策略提供科学依据。这些指示物种应该对环境变化敏感，具有广泛分布的特点，且易于监测。通过长期监测这些物种的变化，我们可以及时发现生态系统的变化趋势，为管理决策提供支持。
-3. **遗传多样性的保护与利用**：水生生物的遗传多样性对于维持生态系统的适应性和恢复力至关重要。在治理过程中，应重视保护具有重要遗传资源的物种，如对特定污染物耐受性强的物种。同时，通过基因组学技术，可以识别出对特定环境压力具有抗性的基因，为人工选择和育种提供依据，从而增强水生生物对环境变化的适应能力。
-4. **生态系统服务功能的提升**：水生生态系统提供了多种服务，如净化水质、蓄洪防旱、提供生物资源等。通过生态工程手段，比如重建湿地、恢复河岸带植被等措施，可以增强这些服务功能。生物学知识在这一过程中扮演关键角色，如选择适合当地环境的植物种类，以促进生物多样性的恢复，同时提高生态系统的生产力和服务能力。
-5. **跨学科合作**：水生生态系统的治理需要地理学、化学、社会学等多学科的共同参与。生物学作为基础学科，可以为其他学科提供关于生态系统运行机制和生物多样性保护的知识基础。例如，与化学家合作，研究污染物在生态系统中的迁移转化过程；与社会学家合作，研究生态系统服务对人类福祉的影响，以及如何通过政策促进公众参与生态系统保护。
-通过上述子问题的研究，生物学不仅能够为水生生态系统的治理提供新的视角和方法，还能与其他学科形成互补，共同推动可持续水生生态环境的建设。</t>
-  </si>
-  <si>
-    <t>在水生生态系统治理这一复杂议题中，物理学，尤其是流体力学、统计物理和复杂系统理论，可以提供独特的视角和解决方案，以补充现有生物、化学和社会经济等学科的研究成果。以下是几个从物理学角度看水生生态系统治理的子问题及解决方案：
-1. **水动力学与污染物扩散模型**：
-   - **问题描述**：水体中污染物的分布和传播是由水流、温度和压力等物理因素决定的。准确预测污染物的扩散路径对于污染控制和水质管理至关重要。
-   - **解决方案**：利用流体力学建立精确的水动力模型，结合气象数据，可以预测污染物在水体中的传播路径和速度。此外，通过引入统计物理中的随机过程模型，可以更好地量化污染物扩散的不确定性和概率分布，为污染应急响应提供科学依据。
-   - **独特贡献**：物理建模方法能够提供高精度的环境预测，支持更有效的污染源定位和污染区隔离，减少对环境的长期损害。
-2. **生态系统功能的物理基础**：
-   - **问题描述**：水生生态系统中物种的分布和群落结构不仅受生物因素影响，物理环境（如水流、光照、温度等）同样起着关键作用。
-   - **解决方案**：通过研究水流等物理因素如何影响水生生物的分布和行为，可以开发出更加精确的生态模型。这些模型可以帮助设计保护措施，比如通过调整人工湖流速来优化鱼类栖息地。
-   - **独特贡献**：物理学的介入能够帮助我们从更基本的层面理解生态系统功能，促进生态修复和生物多样性保护。
-3. **气候变化下的水文循环模拟**：
-   - **问题描述**：气候变化对水生生态系统的影响是多方面的，包括降水、蒸发、地表径流等水文过程的变化。
-   - **解决方案**：应用气候物理和流体力学原理，建立水文循环模型，模拟不同气候变化情景下的水文过程。这些模型可以用来评估气候变化对水生生态系统的潜在影响，为适应策略提供科学支持。
-   - **独特贡献**：通过物理模型预测未来水文条件，有助于制定长期的生态管理和保护计划，增强生态系统的韧性。
-4. **复杂系统理论与水生生态系统管理**：
-   - **问题描述**：水生生态系统是一个复杂的动态系统，其中生物与非生物因素相互作用，导致了系统的高度不确定性。
-   - **解决方案**：利用复杂系统理论，如网络理论和非线性动力学，可以建立水生生态系统的动力学模型。这些模型有助于理解系统内部的相互作用机制，以及外部扰动（如气候变化、人类活动）如何影响系统的稳定性和恢复力。
-   - **独特贡献**：复杂系统方法能够揭示生态系统内部及其与外界相互作用的深层次规律，为制定综合管理策略提供新的视角。
-通过上述从物理学角度出发的解决方案，我们可以为水生生态系统的保护和管理提供有力的技术支撑，并与现有的生物、化学和社会经济解决方案形成互补，共同推动水生生态系统的可持续发展。</t>
-  </si>
-  <si>
-    <t>在水生生态系统治理的议题上，数学模型与优化理论可以提供一种强有力的分析工具，帮助我们更精确地理解和预测生态系统的行为，同时为制定有效的管理和保护策略提供科学依据。以下是从数学角度提出的几个子问题及其解决方案：
-1. **生态系统动力学建模**：运用微分方程或差分方程来模拟水生生态系统的动态过程，例如物种之间的相互作用（捕食-被捕食关系、竞争关系等）、物质循环（如氮、磷循环）和能量流动。通过这些模型，我们可以预测不同管理措施对生态系统结构和功能的长期影响，从而为决策者提供科学建议。
-2. **水质预测与控制模型**：利用概率论和统计学方法分析水质参数（如pH值、溶解氧、营养盐浓度等）的变化规律，建立预测模型。这些模型不仅可以帮助我们预测未来的水质状况，还可以用于评估来源控制策略（如减少农业面源污染、城市生活污水排放等）的有效性，以及制定相应的控制措施。
-3. **生物多样性保护策略的优化**：采用图论和组合优化算法，设计最优的保护区网络布局。例如，通过分析物种分布图和生态廊道的连通性，确定关键保护区域和连接通道，以最大化生物多样性保护效果，同时考虑社会经济成本，实现成本效益最优。
-4. **气候变化适应的数学模型**：结合气候模型的输出数据，使用数学方法评估和预测气候变化对水生生态系统的影响，如水温升高、极端气候事件频率变化等对物种生存和生态过程的影响。这有助于制定适应性管理策略，如调整放养策略、人工干预恢复受损生态等。
-5. **社会经济因素与生态系统服务的定量分析**：构建数学模型来量化生态系统服务（例如水净化、渔业资源等）的价值，并分析社会经济活动（如旅游业、农业等）对这些服务的影响。这有助于平衡经济发展与生态保护之间的关系，促进可持续发展。
-通过上述数学工具的应用，我们可以从更深层次、更广泛的视角理解水生生态系统的复杂性，提供更具体、可行的治理方案。这些方法不仅补充了现有从生物学、环境科学等角度提出的解决方案，而且通过形式化表达和定量分析，增强了策略的科学性和可靠性。</t>
-  </si>
-  <si>
-    <t>在水生生态系统治理这一复杂议题中，化学作为一门基础科学，可以从多个角度提供独特的贡献，尤其是在水质管理与污染控制方面。以下是从化学角度出发，补充性地提出的解决方案：
-1. **微污染物的识别与去除**：水体中的微污染物（如药物残留、个人护理品、内分泌干扰物等）因其来源复杂、浓度低且生物效应显著而成为治理难点。通过化学分析技术（如高效液相色谱-质谱联用技术HPLC-MS）的深入应用，可以更准确地识别和定量这些微污染物。结合绿色化学原理，开发高效、环境友好的去除技术，如利用纳米材料的吸附作用、光催化降解等方法，可以有效减少这些污染物对水生生态系统的威胁。
-2. **重金属污染的治理**：重金属（如铅、汞、镉等）是水体中的重要污染物，具有长期累积性和高度毒性。化学家可以设计特定的螯合剂或利用生物吸附技术，有效捕捉和去除水体中的重金属离子，减少其对水生生物的毒性影响。此外，通过研究重金属在水体中的化学行为（如溶解、沉淀、络合等），可以为制定更为科学的治理策略提供依据。
-3. **营养盐污染的控制**：营养盐（主要是氮、磷）的过量输入是导致水体富营养化的主要原因，进而引发藻华等问题。化学方法可以通过改良沉淀法、化学氧化法等手段，有效去除水体中的过量营养盐。例如，使用铁盐或铝盐作为混凝剂，促进磷酸盐的沉淀；或者采用高级氧化技术（如臭氧氧化、过氧化氢氧化等），将有机氮磷化合物转化为更易处理的形式。
-4. **生态修复材料的开发**：化学在材料科学领域的进展为水生态系统修复提供了新的思路。例如，通过合成具有特定结构和功能的生物可降解材料，作为人工湿地或生物滤池的填充材料，可以提高污染物的去除效率，同时减少二次污染的风险。这些材料的设计需要考虑其与水体中各种化学物质的相互作用，确保在治理过程中既有效又安全。
-5. **环境友好型农药的研发**：农业是水体污染的重要来源之一，特别是农药的使用。化学家可以参与设计和合成新型环境友好型农药，这类农药具有高效、低毒、易降解的特点，可以减少其在水体中的残留，降低对水生生态系统的负面影响。此外，研究农药在水体中的降解途径和代谢产物，也是化学在这一领域的重要贡献。
-通过上述化学学科的独特贡献，可以与生物、环境科学等领域的解决方案形成互补，共同促进水生生态系统的综合治理。化学视角不仅提供了污染识别和治理的新技术，还为实现可持续的水环境管理策略提供了科学依据。</t>
-  </si>
-  <si>
-    <t>在水生生态系统治理这一复杂议题中，从不同学科的角度出发，可以提供多样化的补充性解决方案，共同促进水生生态系统的全面治理。以下是从生物学、物理学和化学角度提供的补充性分析：
-### 生物学角度
-1. **生态网络的构建与分析**：
-   - **问题描述**：水生生态系统中的物种相互作用（如食物网结构、能量流动和物质循环）对生态系统稳定性和生产力至关重要。
-   - **解决方案**：利用生态学原理，研究物种相互作用，揭示关键物种或关键生态过程对生态系统功能的影响。例如，某些浮游生物在去除水体中的有害物质方面发挥重要作用，了解这一点可以指导水质净化措施。
-   - **独特贡献**：提供生态系统内部结构和功能的深入理解，支持更有效的管理措施。
-2. **生物监测与指示物种的选择**：
-   - **问题描述**：生物多样性是水生生态系统健康状况的良好指标。
-   - **解决方案**：选择对环境变化敏感且易于监测的指示物种，通过长期监测这些物种的变化，及时发现生态系统的变化趋势，为管理决策提供支持。
-   - **独特贡献**：提供科学依据，支持污染控制和生态恢复措施。
-3. **遗传多样性的保护与利用**：
-   - **问题描述**：水生生物的遗传多样性对维持生态系统的适应性和恢复力至关重要。
-   - **解决方案**：保护具有重要遗传资源的物种，利用基因组学技术识别对特定环境压力具有抗性的基因，为人工选择和育种提供依据。
-   - **独特贡献**：增强水生生物对环境变化的适应能力，支持生态恢复。
-4. **生态系统服务功能的提升**：
-   - **问题描述**：水生生态系统提供了多种服务，如净化水质、蓄洪防旱、提供生物资源等。
-   - **解决方案**：通过生态工程手段，如重建湿地、恢复河岸带植被等措施，增强这些服务功能。
-   - **独特贡献**：提高生态系统的生产力和服务能力，支持可持续管理。
-5. **跨学科合作**：
-   - **问题描述**：水生生态系统的治理需要多学科的共同参与。
-   - **解决方案**：与化学家、物理学家等合作，研究污染物的迁移转化过程，以及生态系统服务对人类福祉的影响，促进公众参与。
-   - **独特贡献**：提供生态系统运行机制和生物多样性保护的知识基础，支持综合管理策略。
-### 物理学角度
-1. **水动力学与污染物扩散模型**：
-   - **问题描述**：水体中污染物的分布和传播是由水流、温度和压力等物理因素决定的。
-   - **解决方案**：利用流体力学建立精确的水动力模型，结合气象数据，预测污染物的扩散路径和速度。引入统计物理中的随机过程模型，量化污染物扩散的不确定性和概率分布。
-   - **独特贡献**：提供高精度的环境预测，支持更有效的污染源定位和污染区隔离。
-2. **生态系统功能的物理基础**：
-   - **问题描述**：水生生态系统中物种的分布和群落结构受物理环境（如水流、光照、温度等）的影响。
-   - **解决方案**：研究水流等物理因素如何影响水生生物的分布和行为，开发更精确的生态模型，设计保护措施。
-   - **独特贡献**：帮助从更基本的层面理解生态系统功能，促进生态修复和生物多样性保护。
-3. **气候变化下的水文循环模拟**：
-   - **问题描述**：气候变化对水生生态系统的影响是多方面的，包括降水、蒸发、地表径流等水文过程的变化。
-   - **解决方案**：应用气候物理和流体力学原理，建立水文循环模型，评估气候变化对水生生态系统的潜在影响。
-   - **独特贡献**：通过物理模型预测未来水文条件，制定长期的生态管理和保护计划。
-4. **复杂系统理论与水生生态系统管理**：
-   - **问题描述**：水生生态系统是一个复杂的动态系统，生物与非生物因素相互作用，导致系统的高度不确定性。
-   - **解决方案**：利用复杂系统理论，如网络理论和非线性动力学，建立水生生态系统的动力学模型，理解系统内部的相互作用机制。
-   - **独特贡献**：揭示生态系统内部及其与外界相互作用的深层次规律，为制定综合管理策略提供新的视角。
-### 化学角度
-1. **微污染物的识别与去除**：
-   - **问题描述**：水体中的微污染物（如药物残留、个人护理品、内分泌干扰物等）因其来源复杂、浓度低且生物效应显著而成为治理难点。
-   - **解决方案**：通过化学分析技术（如高效液相色谱-质谱联用技术HPLC-MS）识别和定量这些微污染物。结合绿色化学原理，开发高效、环境友好的去除技术，如利用纳米材料的吸附作用、光催化降解等方法。
-   - **独特贡献**：减少这些污染物对水生生态系统的威胁，支持更有效的污染控制。
-2. **重金属污染的治理**：
-   - **问题描述**：重金属（如铅、汞、镉等）是水体中的重要污染物，具有长期累积性和高度毒性。
-   - **解决方案**：设计特定的螯合剂或利用生物吸附技术，有效捕捉和去除水体中的重金属离子。研究重金属在水体中的化学行为，为制定科学的治理策略提供依据。
-   - **独特贡献**：减少重金属对水生生物的毒性影响，支持更安全的水质管理。
-3. **营养盐污染的控制**：
-   - **问题描述**：营养盐（主要是氮、磷）的过量输入是导致水体富营养化的主要原因，进而引发藻华等问题。
-   - **解决方案**：通过改良沉淀法、化学氧化法等手段，有效去除水体中的过量营养盐。例如，使用铁盐或铝盐作为混凝剂，促进磷酸盐的沉淀；或者采用高级氧化技术，将有机氮磷化合物转化为更易处理的形式。
-   - **独特贡献**：控制营养盐污染，减少富营养化现象，支持水体的生态恢复。
-4. **生态修复材料的开发**：
-   - **问题描述**：化学在材料科学领域的进展为水生态系统修复提供了新的思路。
-   - **解决方案**：合成具有特定结构和功能的生物可降解材料，作为人工湿地或生物滤池的填充材料，提高污染物的去除效率，同时减少二次污染的风险。
-   - **独特贡献**：提供高效的生态修复材料，支持可持续的治理策略。
-5. **环境友好型农药的研发**：
-   - **问题描述**：农业是水体污染的重要来源之一，特别是农药的使用。
-   - **解决方案**：设计和合成新型环境友好型农药，这类农药具有高效、低毒、易降解的特点，减少其在水体中的残留，降低对水生生态系统的负面影响。研究农药在水体中的降解途径和代谢产物。
-   - **独特贡献**：减少农业对水体的污染，支持可持续农业发展。
-通过上述多学科的补充性分析，我们可以更全面、科学地理解和治理水生生态系统，实现生态系统的健康和可持续发展。这些方法不仅提供了新的技术手段，还为制定综合管理策略提供了科学依据。</t>
-  </si>
-  <si>
-    <t>在水生生态系统治理中，关键物种的保护与恢复是非常重要的一环。基于我的研究经验和对这一领域的理解，以下是我认为需要重点关注的几个方面：
-1. **识别关键物种**：首先，需要通过生态学调查和种群动态研究，确定生态系统中的关键物种。这些物种可能包括但不限于：生态位独特的物种、对食物网结构有重大影响的物种、对生态系统服务功能至关重要的物种，以及对环境变化敏感的指示物种。例如，在淡水生态系统中，河豚、某些特定的底栖无脊椎动物或者特有的鱼类可能是关键物种。
-2. **制定保护策略**：一旦识别出关键物种，就需要制定相应的保护措施。这包括但不限于：建立保护区或管理区，减少人类活动的干扰；实施种群复壮计划，如人工繁殖和放流，以恢复种群数量；以及开展栖息地恢复工作，如河流修复、湿地建设和水质改善等。
-3. **生态监测与研究**：持续的生态监测是确保保护措施有效性的基础。通过定期的生物多样性调查、水质检测和生态健康评估，可以及时发现生态系统的动态变化，为保护策略的调整提供科学依据。同时，加强对关键物种生态习性、生态位和种间关系的研究，有助于更深入地理解物种在生态系统中的作用，从而优化保护措施。
-4. **社会经济与政策支持**：水生生态系统的保护和恢复需要社会各界的广泛参与和支持。政府应制定有利于生态保护的政策，提供必要的资金支持，并通过宣传教育提高公众的环保意识。此外，鼓励社区和非政府组织参与到保护项目中来，可以增强项目的可持续性和社会影响力。
-5. **适应性管理与气候变化应对**：考虑到全球气候变化对水生生态系统可能产生的长期影响，保护措施应具备一定的灵活性，能够根据环境变化做出相应调整。例如，可以通过建立生态走廊，提高物种的迁移能力，帮助它们适应气候变化。同时，应加强对极端气候事件的预警和应对能力，减少对生态系统的冲击。
-综上所述，水生生态系统中关键物种的保护与恢复是一个多维度、系统性的工程，需要科学规划、综合施策以及全社会的共同努力。</t>
-  </si>
-  <si>
-    <t>针对水生生态系统治理，特别是在水动力学与污染物扩散模型以及气候变化下的水文循环模拟方面，我们可以采取以下具体建议：
-1. **水动力学模型的构建与优化**：首先，需要构建精确的水动力学模型来模拟水流的运动和分布。这包括利用Navier-Stokes方程来描述流体的运动，同时考虑不同的边界条件，如河床形状、水流速度和方向等。模型中应加入对温度、盐度等参数的动态变化的描述，以更真实地反映自然条件下的水体状态。此外，还应采用高分辨率的数值模拟技术，如有限元法或有限体积法，以提高模型的精度和可靠性。
-2. **污染物扩散模型的开发**：基于水动力学模型，开发污染物扩散模型来预测污染物在水体中的传输和扩散。这要求模型能够考虑污染物的物理化学性质，如溶解度、吸附性等，以及生物作用如生物降解等。模型还应能够预测不同条件下的污染物浓度分布，包括不同季节、不同水流条件下的变化，以便为污染物排放管理和水质保护提供科学依据。
-3. **气候变化下的水文循环模拟**：气候变化对水文循环有着深远的影响，因此，在水文循环的模拟中，必须纳入气候变化的预测。这包括使用全球气候模型（GCMs）的输出数据，结合区域尺度的水文模型，来评估降水模式、蒸发量、径流、地下水补给等的变化。此外，还需考虑极端天气事件对水文循环的影响，如洪水和干旱，这些都可能对水生生态系统的健康产生重要影响。
-4. **生态系统响应与反馈机制研究**：在上述模型的基础上，研究水生生态系统对水动力学变化、污染物扩散及气候变化的响应机制。这包括关键物种的生存条件变化、生态系统的生物多样性变化以及这些变化对生态系统功能的影响。通过模拟不同情景下的生态系统响应，可以为水生生态系统的适应性管理提供指导。
-5. **跨学科合作与社会经济因素考量**：治理水生生态系统是一个跨学科的任务，需要物理学、环境科学、生态学、社会学和经济学等多学科的合作。在治理过程中，应充分考虑社会经济因素，如当地居民的生活方式、经济发展需求等，确保治理措施的可行性和可持续性。此外，还应加强公众参与，提高公众对水生生态系统保护的意识。
-通过以上建议的实施，可以有效推进水生生态系统的治理工作，确保水体质量的改善和生态系统的可持续发展。这些工作不仅对保护生物多样性至关重要，也是应对全球气候变化挑战的重要组成部分。</t>
-  </si>
-  <si>
-    <t>在水生生态系统治理中，水质管理和污染控制以及生态修复材料的开发和环境友好型农药的研发是关键环节。针对这些方面，我有以下几点具体的建议：
+    <t>水生生态系统治理是一个复杂的多学科问题，它不仅涉及到生物、化学、地理等多个科学领域，还与社会经济活动密切相关。以下是3-5个核心问题，这些问题对于理解和解决水生生态系统治理具有基础性作用：
 1. **水质管理和污染控制**：
-   - **源头控制**：对工业废水、农业径流和生活污水等主要污染源实施严格的排放标准，采用先进的处理技术减少污染物的排放。例如，利用生物膜技术、活性污泥法和人工湿地等方法，有效去除水体中的氮磷等营养盐，控制富营养化问题。
-   - **监测与预警系统**：建立和完善水质监测网络，实时监控水质变化，及时发现并处理污染事件。利用现代信息技术如物联网（IoT）、大数据等，提高监测效率和预警能力。
-   - **生态修复**：实施生态修复工程，如恢复水生植物和底栖生物的多样性，建立生态护坡，增强水体的自净能力。通过生物修复技术，如微生物修复和植物修复，降低污染物的浓度。
-2. **生态修复材料的开发**：
-   - **环境友好材料**：研发和使用环境友好型修复材料，如可降解材料、生物基材料等，这些材料在完成修复任务后，不会对环境造成二次污染。
-   - **高效吸附材料**：开发具有高吸附性能的材料，用于吸附水体中的重金属、有机污染物等。例如，利用改性活性炭、纳米材料等，提高吸附效率和选择性。
-   - **智能修复材料**：研究具有自调节功能的智能修复材料，根据水体污染程度自动调整吸附或释放污染物的能力，实现精准修复。
-3. **环境友好型农药的研发**：
-   - **生物农药**：加大生物农药的研发力度，利用微生物、植物提取物等天然成分，替代化学合成农药，减少对水体的污染。例如，苏云金杆菌（Bt）等生物农药对环境友好，且对目标害虫有较高的选择性。
-   - **缓释技术**：开发农药缓释技术，减少农药的频繁施用，降低农药残留，同时提高农药使用效率。通过纳米载体、微胶囊等技术，使农药在环境中缓慢释放，延长其作用时间。
-   - **精准施药**：利用现代农业技术，如无人机、GPS定位等，实现精准施药，减少农药的过量使用。通过对农田环境的精确监测，调整施药策略，减少对非目标生物的影响。
-4. **综合性解决方案**：
-   - **多学科合作**：水生生态系统治理是一个复杂的系统工程，需要化学、环境科学、生态学、材料科学等多学科的合作。通过跨学科的合作，可以更全面地解决水质管理和污染控制问题，开发出更高效、更环保的修复材料和农药。
-   - **社会经济因素的考虑**：在制定治理策略时，应充分考虑社会经济因素，确保治理方案的可行性和可持续性。例如，通过政策引导，鼓励农民采用环境友好型农业技术，减少化肥和农药的使用。
-通过上述措施，我们可以更有效地管理和控制水生生态系统的水质问题，促进生态系统的健康和可持续发展，为人类提供一个清洁、健康的水环境。</t>
-  </si>
-  <si>
-    <t>项目申请书
-摘要：
-水生生态系统的治理是当前环境保护领域面临的重大挑战。本项目以综合学科的方法，针对水生生态系统治理中的关键物种保护、水质管理与污染控制、生态系统功能与生物多样性关系、社会经济因素影响及气候变化适应策略等核心问题，提出了一套系统性的解决方案。通过生态学、物理学、化学等多学科的深度合作，旨在构建一个可持续发展的水生生态系统治理模式，为实现水生生态系统的健康与稳定提供科学依据和技术支持。
-研究背景和意义：
-随着工业化、城市化的发展，水生生态系统面临着严重威胁，如水质恶化、生物多样性丧失、生态系统功能退化等问题。这些问题不仅影响了生态系统的健康，还对人类社会的可持续发展构成了挑战。因此，开展水生生态系统的综合治理研究，对于恢复生态系统功能、保护生物多样性、提高人类生活质量具有重要意义。
-研究内容：
-1. 关键物种的保护与恢复：通过生态学调查，识别水生生态系统中的关键物种，研究其种群动态，制定有效的种群复壮和栖息地恢复计划。
-2. 水质管理与污染控制：建立水质监测网络，实施严格的排放标准，采用先进技术进行污染治理，恢复水体生态健康。
-3. 生态系统的生物多样性和功能之间的关系：研究生物多样性与生态系统功能的关联，评估生物多样性对生态系统服务价值的影响。
-4. 社会经济因素对水生生态系统治理的影响：分析社会经济发展对水生生态系统的影响，探讨有效的政策工具和社会参与机制。
-5. 气候变化下的水生生态系统适应策略：建立适应气候变化的水生生态系统管理策略，提高生态系统的韧性。
-拟解决的科学问题：
-1. 如何有效地识别和保护水生生态系统中的关键物种？
-2. 如何通过先进的技术手段实现水质的有效管理和污染控制？
-3. 生物多样性与生态系统功能之间的关系是什么，如何利用生物多样性提高生态系统的恢复力？
-4. 社会经济因素如何影响水生生态系统的治理，如何构建合理的政策框架和社会参与机制？
-5. 在气候变化的背景下，水生生态系统应采取何种适应策略来维持其功能和稳定性？
-拟提出的技术路线：
-1. 关键物种的保护与恢复：开展生态学调查，利用种群动态模型（如Leslie矩阵模型）预测种群发展趋势，结合遗传学分析，识别物种的遗传多样性；利用GIS技术和遥感数据确定关键物种的分布区域，制定保护区划设方案，实施种群复壮和栖息地恢复项目，如人工种植水生植物、投放底栖生物等。
-2. 水质管理与污染控制：构建水动力学模型（基于Navier-Stokes方程），模拟水质变化，预测污染物扩散路径；开发污染物的物理化学性质数据库，结合生物作用模型，建立污染物扩散模型；实施严格的排放标准，采用高效吸附材料和生物修复技术，建立水质监测网络，实现水质的实时监控。
-3. 生态系统的生物多样性和功能之间的关系：通过实地调查和实验研究，收集生物多样性数据，结合生态系统功能指标（如初级生产力、分解速率等）进行统计分析，使用结构方程模型（SEM）解析生物多样性与生态系统功能之间的复杂关系。
-4. 社会经济因素对水生生态系统治理的影响：进行社会经济调查，建立社会经济因素影响评估模型，利用成本效益分析等经济学方法，评估不同治理措施的可行性；通过政策分析，提出有利于生态保护的政策建议，包括财政补贴、税费优惠等。
-5. 气候变化下的水生生态系统适应策略：利用全球气候模型（GCMs）的输出数据，评估气候变化对水文循环的影响，预测降水模式、蒸发量、径流、地下水补给的变化；模拟不同情景下的生态系统响应，如温度升高对水温的影响、极端天气事件对水生生物的影响等；提出建立生态走廊、增加生态缓冲区等适应性管理措施。
-预期成果：
-1. 形成一套针对关键物种的有效保护与恢复技术，改善水生生态系统的物种多样性。
-2. 建立先进的水质管理和污染控制方法，提高水体自净能力，恢复水体生态健康。
-3. 深入理解生物多样性与生态系统功能之间的关系，为生态修复提供理论指导。
-4. 提出一套促进社会经济可持续发展的水生生态系统治理政策建议。
-5. 制定适应气候变化的水生生态系统管理策略，提高生态系统的适应能力和韧性。</t>
-  </si>
-  <si>
-    <t>项目申请书
-摘要：
-水生生态系统的治理是当前环境保护领域面临的重大挑战。本项目以综合学科的方法，针对水生生态系统治理中的关键物种保护、水质管理与污染控制、生态系统功能与生物多样性关系、社会经济因素影响及气候变化适应策略等核心问题，提出了一套系统性的解决方案。通过生态学、物理学、化学等多学科的深度合作，旨在构建一个可持续发展的水生生态系统治理模式，为实现水生生态系统的健康与稳定提供科学依据和技术支持。
-研究背景和意义：
-随着工业化、城市化的发展，水生生态系统面临着严重威胁，如水质恶化、生物多样性丧失、生态系统功能退化等问题。这些问题不仅影响了生态系统的健康，还对人类社会的可持续发展构成了挑战。因此，开展水生生态系统的综合治理研究，对于恢复生态系统功能、保护生物多样性、提高人类生活质量具有重要意义。
-研究内容：
-1. **关键物种的保护与恢复**：通过生态学调查，识别水生生态系统中的关键物种，研究其种群动态，制定有效的种群复壮和栖息地恢复计划。
-2. **水质管理与污染控制**：建立水质监测网络，实施严格的排放标准，采用先进技术进行污染治理，恢复水体生态健康。
-3. **生态系统的生物多样性和功能之间的关系**：研究生物多样性与生态系统功能的关联，评估生物多样性对生态系统服务价值的影响。
-4. **社会经济因素对水生生态系统治理的影响**：分析社会经济发展对水生生态系统的影响，探讨有效的政策工具和社会参与机制。
-5. **气候变化下的水生生态系统适应策略**：建立适应气候变化的水生生态系统管理策略，提高生态系统的韧性。
-拟解决的科学问题：
-1. **如何有效地识别和保护水生生态系统中的关键物种？**
-2. **如何通过先进的技术手段实现水质的有效管理和污染控制？**
-3. **生物多样性与生态系统功能之间的关系是什么，如何利用生物多样性提高生态系统的恢复力？**
-4. **社会经济因素如何影响水生生态系统的治理，如何构建合理的政策框架和社会参与机制？**
-5. **在气候变化的背景下，水生生态系统应采取何种适应策略来维持其功能和稳定性？**
-拟提出的技术路线：
-1. **关键物种的保护与恢复**：
-   - **生态学调查**：通过生态学调查，利用种群动态模型（如Leslie矩阵模型）预测种群发展趋势，结合遗传学分析，识别物种的遗传多样性。
-   - **保护区划设**：利用GIS技术和遥感数据确定关键物种的分布区域，制定保护区划设方案，实施种群复壮和栖息地恢复项目，如人工种植水生植物、投放底栖生物等。
-   - **持续生态监测**：定期进行生物多样性调查、水质检测和生态健康评估，为保护策略的调整提供科学依据。
-   - **社会经济与政策支持**：政府制定有利于生态保护的政策，提供必要的资金支持，通过宣传教育提高公众的环保意识。
-   - **适应性管理与气候变化应对**：建立生态走廊，提高物种的迁移能力，加强极端气候事件的预警和应对能力。
-2. **水质管理与污染控制**：
-   - **水动力学模型**：构建水动力学模型（基于Navier-Stokes方程），模拟水质变化，预测污染物扩散路径。
-   - **污染物扩散模型**：开发污染物的物理化学性质数据库，结合生物作用模型，建立污染物扩散模型。
-   - **排放标准与处理技术**：实施严格的排放标准，采用高效吸附材料和生物修复技术，提高污染物去除效率。
-   - **水质监测网络**：建立水质监测网络，实现水质的实时监控，及时发现并处理污染事件。
-3. **生态系统的生物多样性和功能之间的关系**：
-   - **实地调查与实验研究**：通过实地调查和实验研究，收集生物多样性数据，结合生态系统功能指标（如初级生产力、分解速率等）进行统计分析。
-   - **结构方程模型**：使用结构方程模型（SEM）解析生物多样性与生态系统功能之间的复杂关系，为生态修复提供理论指导。
-4. **社会经济因素对水生生态系统治理的影响**：
-   - **社会经济调查**：进行社会经济调查，建立社会经济因素影响评估模型，利用成本效益分析等经济学方法，评估不同治理措施的可行性。
-   - **政策分析与建议**：通过政策分析，提出有利于生态保护的政策建议，包括财政补贴、税费优惠等，促进社会经济的可持续发展。
-5. **气候变化下的水生生态系统适应策略**：
-   - **气候变化预测**：利用全球气候模型（GCMs）的输出数据，评估气候变化对水文循环的影响，预测降水模式、蒸发量、径流、地下水补给的变化。
-   - **生态系统响应模拟**：模拟不同情景下的生态系统响应，如温度升高对水温的影响、极端天气事件对水生生物的影响等。
-   - **适应性管理措施**：提出建立生态走廊、增加生态缓冲区等适应性管理措施，提高生态系统的适应能力和韧性。
-预期成果：
-1. **形成一套针对关键物种的有效保护与恢复技术**，改善水生生态系统的物种多样性。
-2. **建立先进的水质管理和污染控制方法**，提高水体自净能力，恢复水体生态健康。
-3. **深入理解生物多样性与生态系统功能之间的关系**，为生态修复提供理论指导。
-4. **提出一套促进社会经济可持续发展的水生生态系统治理政策建议**。
-5. **制定适应气候变化的水生生态系统管理策略**，提高生态系统的适应能力和韧性。
-通过上述综合措施，我们可以有效地管理和治理水生生态系统，保护和恢复生态系统的健康状态，保障生物多样性和生态服务功能的持续供给，实现水资源的可持续利用。</t>
+   - 水体污染是水生生态系统面临的首要问题之一。治理过程中需要明确主要的污染源，如工业排放、农业面源污染、生活污水等，并制定有效的管理政策和技术手段来减少污染物的排放。
+   - 了解污染物在水体中的迁移、转化和累积规律，对于制定有效的污染控制措施至关重要。
+2. **生物多样性的保护**：
+   - 水生生态系统是许多特有物种的栖息地，生物多样性的丧失会严重影响生态系统的健康和功能。因此，保护水生生物多样性是治理的重要内容。
+   - 需要通过建立保护区、实施物种恢复计划等措施来保护和恢复水生生物多样性。
+3. **生态流量的保障**：
+   - 水生生态系统需要一定的水流条件来维持其生态平衡。过度的水资源开发和利用，如大坝建设、水力发电等，会改变自然的水文循环，进而影响生态系统。
+   - 保障生态流量，即在满足人类用水需求的同时，为水生生态系统留出足够的水量，是治理的关键之一。
+4. **土地利用变化对水环境的影响**：
+   - 土地利用方式的变化，如城市化、农业扩张等，直接影响到水体的质量和水量。例如，城市化过程中增加的不透水面积会导致地表径流增加，从而加剧城市水体的污染。
+   - 需要通过合理的土地利用规划和管理，减少对水环境的负面影响。
+5. **气候变化下的适应性管理**：
+   - 气候变化对水生生态系统的影响日益显著，如极端气候事件的增多、水温的变化等，这些变化对水生生物和水质都会产生影响。
+   - 需要建立适应性管理框架，根据气候变化的趋势和影响，调整水生生态系统的治理策略。
+这些问题的解决需要跨学科的合作，包括地理学、生态学、环境科学、社会经济学等领域的专家共同努力，以实现水生生态系统的可持续管理。</t>
+  </si>
+  <si>
+    <t>针对水生生态系统治理的五大核心问题，提供以下具体的分析和建议：
+1. **水质管理和污染控制**
+   - **分析**：水质是水生生态系统健康的基础，污染源包括工业废水、农业化肥和农药、城市生活污水等。这些污染物质不仅影响水质，还会导致水体富营养化，影响水生物的生存。
+   - **建议**：
+     - 实施全面的水质监测体系，定期检测水质指标，包括溶解氧、pH值、营养盐含量等。
+     - 建立污染源追溯机制，对重点污染源进行严格的管控和治理。
+     - 推广生态农业，减少化肥和农药的使用，减少农业面源污染。
+     - 加强城市污水处理设施的建设和运营，确保污水得到有效处理后再排放。
+2. **生物多样性的保护**
+   - **分析**：生物多样性是生态系统稳定性的关键，包括物种多样性、遗传多样性和生态系统多样性。生物多样性的减少会导致生态系统服务功能的下降，如水质净化、洪水调节等。
+   - **建议**：
+     - 建立自然保护区和生态廊道，保护重要物种的栖息地。
+     - 实施生态修复项目，恢复受损的生态系统，如湿地恢复、河流生态系统重建。
+     - 促进社区参与，提高公众对生物多样性保护的意识和参与度。
+     - 加强生物多样性研究，建立生物多样性数据库，支持科学决策。
+3. **生态流量的保障**
+   - **分析**：生态流量是指维持水生生态系统健康所必需的最小水流条件。不合理的水资源开发和利用，如过度抽水、水库调节，可能导致生态流量不足，影响水生生物的生存和繁殖。
+   - **建议**：
+     - 制定科学的水资源管理和调度方案，确保在满足人类用水需求的同时，留出足够的生态流量。
+     - 建立生态流量监测体系，实时监控河流生态状况，及时调整水资源调度。
+     - 开展生态补偿机制，对于因水资源开发而受到影响的地区和社区给予补偿。
+4. **土地利用变化对水环境的影响**
+   - **分析**：土地利用变化，如城市扩张、农业用地增加、森林砍伐等，会改变地表径流模式，增加地表径流和污染物的输送，影响水环境质量。
+   - **建议**：
+     - 实施土地利用规划，合理布局城市、农业和森林用地，减少对水环境的负面影响。
+     - 推广低影响开发（LID）技术，如透水铺装、雨水花园等，减少地表径流。
+     - 加强水土保持工作，恢复和保护水源地的植被覆盖，减少水土流失。
+     - 建立跨区域合作机制，协调上下游、左右岸的土地利用和水资源管理。
+5. **气候变化下的适应性管理**
+   - **分析**：气候变化导致极端天气事件增多，如洪水、干旱等，对水生生态系统构成严重威胁。此外，气候变化还会影响水温、水流等，影响水生物的生存。
+   - **建议**：
+     - 建立气候变化监测和预警系统，提前预测极端天气事件，采取应对措施。
+     - 制定适应气候变化的水资源管理策略，如建设多水源供水系统，提高水资源利用效率。
+     - 开展生态适应性管理，如调整物种分布、优化生态结构，提高生态系统对气候变化的适应能力。
+     - 加强气候变化下的科学研究，为政策制定提供科学依据。
+综上所述，水生生态系统治理需要多学科、多部门的协同合作，通过科学的管理和技术手段，保护水环境，维护生态平衡。</t>
+  </si>
+  <si>
+    <t>在水质管理和污染控制的领域，通过对污染源的化学分析，我们可以采取更为有效的措施来减轻水体污染，改善水质。以下是对主要污染源的具体化学分析及建议：
+1. **工业废水**：
+   - **化学分析**：工业废水中的主要污染物包括重金属（如铅、汞、镉）、有机污染物（如苯、酚类化合物）、酸碱性物质等。这些物质可通过化学沉淀、吸附、氧化还原反应等方法去除。
+   - **建议**：
+     - 采用化学沉淀法处理含重金属废水，通过加入石灰、硫酸铁等沉淀剂，使重金属形成不溶性沉淀物，易于分离。
+     - 对于含有有机污染物的废水，可以采用高级氧化技术，如Fenton试剂（过氧化氢与硫酸亚铁的混合物）氧化，或者光催化氧化法，利用半导体材料如TiO2在光照下产生自由基，分解有机污染物。
+     - 采用生物处理技术，如活性污泥法或生物滤池，利用微生物的代谢活动分解有机物。
+2. **农业化肥和农药**：
+   - **化学分析**：农业污染主要来自于过量使用化肥和农药，导致硝酸盐、磷酸盐、有机磷等物质进入水体，引起水体富营养化，促进藻类生长，消耗水中的溶解氧，影响水生生物的生存。
+   - **建议**：
+     - 推广科学施肥，减少化肥的过量使用，提倡使用缓释肥料，减少氮、磷元素的流失。
+     - 采用生物农药替代化学农药，减少对水体的污染。建立农田缓冲带，利用植被过滤和吸收从农田流入水体的污染物。
+     - 定期监测水体中的硝酸盐和磷酸盐含量，采取必要的净化措施，如通过水生植物或藻类吸收，或者使用化学试剂如石灰调节pH值，减少水体富营养化。
+3. **城市生活污水**：
+   - **化学分析**：城市生活污水中主要含有有机物、氮、磷、悬浮固体等污染物，这些物质可以通过生物处理、化学处理和物理处理方法去除。
+   - **建议**：
+     - 建立和完善城市污水处理厂，采用初级处理、二级处理和深度处理相结合的方法，确保污水达标排放。
+     - 采用膜生物反应器（MBR）技术，提高污水处理效率，减少占地面积。
+     - 推广雨水收集和再利用系统，减少城市雨水径流对水体的冲击，同时缓解城市水资源短缺问题。
+总之，水质管理和污染控制是一个复杂的过程，需要政府、企业和公众的共同努力。通过上述化学分析和建议，我们可以采取更有效的措施，减少水体污染，保护水生生态系统，为可持续发展做出贡献。</t>
+  </si>
+  <si>
+    <t>土地利用变化对水环境的影响是一个多维度、跨学科的问题，涉及到自然地理、环境科学、城市规划等多个领域。土地利用的变化，如城市扩张、农业用地增加、森林砍伐等，对水环境的影响主要体现在以下几个方面：
+1. **地表径流变化**：城市化和农业开发通常伴随着不透水面的增加，这会改变地表径流的路径和速度，减少地下水的补给，加速地表水流，导致洪水风险增加。此外，城市化过程中绿地的减少也会导致雨水吸收能力下降。
+2. **水质污染**：农业活动中的化肥、农药使用，以及城市生活污水的排放，都会增加水体中的氮、磷等营养物质含量，导致富营养化问题，影响水体的生态健康。工业废水的排放更是直接导致水体的化学污染。
+3. **生态系统破坏**：森林砍伐和湿地的开发不仅减少了自然界的碳汇，还破坏了水循环过程中的重要环节，影响了水文循环和生物多样性。
+4. **气候变化的影响**：土地利用变化通过改变地表覆盖类型，影响地表的蒸发和蒸腾作用，进而影响局部和区域的水文气候，加剧或缓解气候变化的影响。
+针对上述问题，从地理学的角度提出以下分析和建议：
+### 分析
+- **空间分析**：利用GIS和遥感技术，分析土地利用类型的变化趋势，特别是不透水面、耕地、森林和湿地的变化情况，评估这些变化对地表径流和水质的影响。
+- **水文模拟**：通过构建水文模型，模拟不同土地利用情景下的径流过程和水质变化，预测未来可能的变化趋势。
+- **生态影响评估**：评估土地利用变化对生物多样性、生态系统服务功能（如水源涵养、洪水调蓄）的影响。
+### 建议
+- **优化土地利用规划**：在城市规划和土地利用规划中，应优先保护水源地和重要生态区域，合理布局工业区、居住区和农业区，减少对水环境的负面影响。
+- **推广绿色基础设施**：城市中应增加绿地面积，建设雨水花园、透水性铺装等绿色基础设施，提高城市雨水的自然吸收能力，减少地表径流。
+- **实施农业面源污染控制**：推广农业节水灌溉技术，合理使用化肥和农药，减少农业面源污染对水质的影响。
+- **加强水环境保护法规**：完善水环境保护的法律法规，明确不同区域的水质保护标准，加大对违法排污行为的处罚力度。
+- **公众参与和教育**：提高公众对水环境保护的认识，鼓励公众参与水环境保护活动，如河流清洁、生态修复等。
+通过上述措施，可以有效缓解土地利用变化对水环境的影响，实现人与自然的和谐共生。</t>
+  </si>
+  <si>
+    <t>针对水生生态系统治理的五大核心问题，以下是各学科专家提供的具体分析和建议：
+### 1. 水质管理和污染控制
+**化学教授的分析和建议**：
+- **工业废水**：
+  - **化学分析**：主要污染物包括重金属（如铅、汞、镉）、有机污染物（如苯、酚类化合物）、酸碱性物质等。这些物质可以通过化学沉淀、吸附、氧化还原反应等方法去除。
+  - **建议**：
+    - 采用化学沉淀法处理含重金属废水，通过加入石灰、硫酸铁等沉淀剂，使重金属形成不溶性沉淀物，易于分离。
+    - 对于含有有机污染物的废水，可以采用高级氧化技术，如Fenton试剂（过氧化氢与硫酸亚铁的混合物）氧化，或者光催化氧化法，利用半导体材料如TiO2在光照下产生自由基，分解有机污染物。
+    - 采用生物处理技术，如活性污泥法或生物滤池，利用微生物的代谢活动分解有机物。
+- **农业化肥和农药**：
+  - **化学分析**：主要污染物包括硝酸盐、磷酸盐、有机磷等物质，导致水体富营养化，促进藻类生长，消耗水中的溶解氧，影响水生生物的生存。
+  - **建议**：
+    - 推广科学施肥，减少化肥的过量使用，提倡使用缓释肥料，减少氮、磷元素的流失。
+    - 采用生物农药替代化学农药，减少对水体的污染。建立农田缓冲带，利用植被过滤和吸收从农田流入水体的污染物。
+    - 定期监测水体中的硝酸盐和磷酸盐含量，采取必要的净化措施，如通过水生植物或藻类吸收，或者使用化学试剂如石灰调节pH值，减少水体富营养化。
+- **城市生活污水**：
+  - **化学分析**：主要污染物包括有机物、氮、磷、悬浮固体等，可以通过生物处理、化学处理和物理处理方法去除。
+  - **建议**：
+    - 建立和完善城市污水处理厂，采用初级处理、二级处理和深度处理相结合的方法，确保污水达标排放。
+    - 采用膜生物反应器（MBR）技术，提高污水处理效率，减少占地面积。
+    - 推广雨水收集和再利用系统，减少城市雨水径流对水体的冲击，同时缓解城市水资源短缺问题。
+### 2. 生物多样性的保护
+**生物学教授的分析和建议**：
+- **分析**：生物多样性是生态系统稳定性的关键，包括物种多样性、遗传多样性和生态系统多样性。生物多样性的减少会导致生态系统服务功能的下降，如水质净化、洪水调节等。
+- **建议**：
+  - 建立自然保护区和生态廊道，保护重要物种的栖息地。
+  - 实施生态修复项目，恢复受损的生态系统，如湿地恢复、河流生态系统重建。
+  - 促进社区参与，提高公众对生物多样性保护的意识和参与度。
+  - 加强生物多样性研究，建立生物多样性数据库，支持科学决策。
+### 3. 生态流量的保障
+**生物学教授的分析和建议**：
+- **分析**：生态流量是指维持水生生态系统健康所必需的最小水流条件。不合理的水资源开发和利用，如过度抽水、水库调节，可能导致生态流量不足，影响水生生物的生存和繁殖。
+- **建议**：
+  - 制定科学的水资源管理和调度方案，确保在满足人类用水需求的同时，留出足够的生态流量。
+  - 建立生态流量监测体系，实时监控河流生态状况，及时调整水资源调度。
+  - 开展生态补偿机制，对于因水资源开发而受到影响的地区和社区给予补偿。
+### 4. 土地利用变化对水环境的影响
+**地理学教授的分析和建议**：
+- **分析**：
+  - **地表径流变化**：城市化和农业开发通常伴随着不透水面的增加，改变地表径流的路径和速度，减少地下水的补给，加速地表水流，导致洪水风险增加。城市化过程中绿地的减少也会导致雨水吸收能力下降。
+  - **水质污染**：农业活动中的化肥、农药使用，以及城市生活污水的排放，增加水体中的氮、磷等营养物质含量，导致富营养化问题，影响水体的生态健康。工业废水的排放直接导致水体的化学污染。
+  - **生态系统破坏**：森林砍伐和湿地的开发减少自然界的碳汇，破坏水循环过程中的重要环节，影响水文循环和生物多样性。
+  - **气候变化的影响**：土地利用变化通过改变地表覆盖类型，影响地表的蒸发和蒸腾作用，进而影响局部和区域的水文气候，加剧或缓解气候变化的影响。
+- **建议**：
+  - **优化土地利用规划**：在城市规划和土地利用规划中，优先保护水源地和重要生态区域，合理布局工业区、居住区和农业区，减少对水环境的负面影响。
+  - **推广绿色基础设施**：城市中增加绿地面积，建设雨水花园、透水性铺装等绿色基础设施，提高城市雨水的自然吸收能力，减少地表径流。
+  - **实施农业面源污染控制**：推广农业节水灌溉技术，合理使用化肥和农药，减少农业面源污染对水质的影响。
+  - **加强水环境保护法规**：完善水环境保护的法律法规，明确不同区域的水质保护标准，加大对违法排污行为的处罚力度。
+  - **公众参与和教育**：提高公众对水环境保护的认识，鼓励公众参与水环境保护活动，如河流清洁、生态修复等。
+### 5. 气候变化下的适应性管理
+**地理学教授的分析和建议**：
+- **分析**：气候变化导致极端天气事件增多，如洪水、干旱等，对水生生态系统构成严重威胁。气候变化还会影响水温、水流等，影响水生物的生存。
+- **建议**：
+  - 建立气候变化监测和预警系统，提前预测极端天气事件，采取应对措施。
+  - 制定适应气候变化的水资源管理策略，如建设多水源供水系统，提高水资源利用效率。
+  - 开展生态适应性管理，如调整物种分布、优化生态结构，提高生态系统对气候变化的适应能力。
+  - 加强气候变化下的科学研究，为政策制定提供科学依据。
+综上所述，水生生态系统治理需要多学科、多部门的协同合作，通过科学的管理和技术手段，保护水环境，维护生态平衡。</t>
+  </si>
+  <si>
+    <t>在水生生态系统治理中，水质管理和污染控制是至关重要的方面。这不仅关系到人类的健康和生活质量，也直接影响到生态系统的平衡和生物多样性。针对工业废水、农业化肥和农药、城市生活污水这三大主要污染来源，我们可以从化学分析和处理建议两方面来进行探讨。
+### 1. 工业废水
+**化学分析**：
+工业废水的化学成分复杂，包含重金属（如铅、汞、铬等）、有机污染物（如苯、酚类化合物）、酸碱物质、悬浮固体等。这些物质能够改变水体的pH值、增加水体的化学需氧量（COD）和生化需氧量（BOD），并对水生生物造成毒性影响。
+**处理建议**：
+- **预处理**：通过格栅、沉淀等方法去除大颗粒物质和悬浮固体。
+- **中和处理**：使用石灰、氢氧化钠等碱性物质中和酸性废水，反之亦然。
+- **化学沉淀**：通过加入絮凝剂，如聚合氯化铝（PAC）或聚合硫酸铁（PFS），使重金属等有害物质形成沉淀，易于分离。
+- **生物处理**：采用活性污泥法或生物膜法，利用微生物降解有机污染物。
+- **深度处理**：通过膜过滤、活性炭吸附等方法进一步净化水质，确保出水符合排放标准。
+- **回用与零排放**：鼓励企业采用废水回用技术和零排放技术，减少水资源的浪费和污染。
+### 2. 农业化肥和农药
+**化学分析**：
+农业化肥主要包括氮肥、磷肥和钾肥，而农药则包含多种有机化合物，如有机磷、有机氯、氨基甲酸酯类等。这些物质在使用过程中容易随雨水流入水体，造成水体富营养化和有毒物质积累，影响水体生态平衡。
+**处理建议**：
+- **精准施肥**：推广精准施肥技术，根据土壤测试结果合理施用化肥，减少过量施肥。
+- **农药减量**：推广生物防治、物理防治等方法，减少化学农药的使用量。
+- **缓冲带建设**：在农田与水体之间建设植被缓冲带，拦截和吸收流入水体的化肥和农药。
+- **水体修复**：对于已受污染的水体，采用生物修复技术，如种植水生植物、投放微生物菌剂等，恢复水体生态功能。
+- **农民培训**：加强对农民的环保意识培训，提高其科学施肥和合理用药的能力。
+### 3. 城市生活污水
+**化学分析**：
+城市生活污水主要包含有机物、氮、磷、悬浮固体、病原微生物等。这些物质不仅影响水体的感官质量，还可能传播疾病，对人类健康构成威胁。
+**处理建议**：
+- **预处理**：通过格栅、沉砂池等设施去除大颗粒物质和悬浮固体。
+- **初级处理**：利用沉淀池去除较大的悬浮物和部分有机物。
+- **二级处理**：采用活性污泥法或生物膜法，进一步去除有机物、氮和磷。
+- **三级处理**：通过过滤、消毒等方法进一步净化水质，确保出水达到排放标准或回用标准。
+- **污水处理厂优化**：提高污水处理厂的运行效率，采用先进的处理技术和设备，减少能耗和运行成本。
+- **雨水管理**：建设雨水收集系统和雨水花园，减少雨水径流对水体的污染。
+### 总结
+水质管理和污染控制是一个系统工程，需要多方面的共同努力。通过科学的化学分析，结合合理的处理技术和管理措施，可以有效改善水质，保护水生生态系统。希望以上分析和建议能够为水质管理和污染控制提供有力支持。</t>
+  </si>
+  <si>
+    <t>在水生生态系统治理中，生物多样性的保护至关重要，因为生物多样性的减少不仅可能导致物种灭绝，还会使生态系统服务功能下降，影响水质净化、洪水调节等重要生态功能。因此，我们需要从物种多样性、遗传多样性和生态系统多样性三个方面入手，采取综合措施进行保护。
+1. 物种多样性保护：
+   - **建立保护区**：划定并管理水生生态系统的保护区，为濒危和受威胁的物种提供避难所，同时减少人类活动对这些区域的干扰。
+   - **物种恢复**：对于已经减少或消失的物种，通过人工繁殖和释放等手段，尝试恢复其种群数量。
+   - **生态廊道建设**：构建连接不同保护区的生态廊道，促进物种迁移和基因交流，增强生态系统的连通性和稳定性。
+   - **监测与评估**：定期对水生生态系统中的物种多样性进行监测，评估保护措施的效果，及时调整保护策略。
+2. 遗传多样性保护：
+   - **遗传资源库建立**：建立水生生物遗传资源库，收集并保存珍贵和濒危物种的遗传物质，为未来的研究和恢复工作提供材料。
+   - **遗传多样性研究**：加强对水生生物遗传多样性的研究，评估遗传变异的现状和趋势，识别遗传多样性降低的风险因素。
+   - **遗传管理**：在物种恢复和人工繁殖项目中，注意保持遗传多样性，避免遗传瓶颈和遗传漂变导致的遗传多样性丧失。
+3. 生态系统多样性保护：
+   - **生态系统恢复**：对已退化的水生生态系统进行生态恢复，如湿地恢复和河流生态修复，以恢复其自然结构和功能。
+   - **流域综合管理**：实施流域综合管理策略，协调上游和下游的水资源利用，减少污染和人类活动对水生生态系统的负面影响。
+   - **生态服务价值评估**：评估水生生态系统提供的生态服务价值，如水质净化、防洪、生物多样性维持等，提高公众对生态系统保护的认识和支持。
+   - **法律法规建设**：完善相关法律法规，设立严格的环保标准，确保水生生态系统的可持续利用和保护。
+通过上述多方面的措施，我们可以有效地保护水生生态系统的生物多样性，维护生态平衡，确保生态系统的健康和可持续发展。</t>
+  </si>
+  <si>
+    <t>生态流量是指为了维持水生生态系统健康和正常功能所必需的水流条件，包括水量、水质和水流的时间分布等方面。它对于保持水生生物多样性、支持水文循环、防止土壤侵蚀和保障人类用水安全等方面具有至关重要的作用。不合理的水资源开发和利用，如过度抽水、水库调节等，会干扰自然水流，导致生态流量不足，进而对水生生物的生存和繁殖造成威胁，影响整个生态系统的平衡。
+为了科学管理和保障生态流量，以下是一些建议和措施：
+1. **建立生态流量评价体系**：根据不同的水体类型和生态环境特点，制定科学合理的生态流量评价标准，定期监测和评估水体的生态流量状态，为水资源管理和保护提供依据。
+2. **优化水资源配置和调度**：在满足人类用水需求的同时，充分考虑生态流量的需求，通过调整水库运行规则、优化城市供水系统等措施，确保在关键时期和关键区域能够保障足够的生态流量。
+3. **恢复和保护自然水体**：加强对河流、湖泊等自然水体的保护，恢复受损的水生生态系统，例如通过重建河岸带植被、清理水体污染、建设生态护岸等措施，增强水体的自净能力和生态服务功能。
+4. **实施流域综合管理**：推动跨区域、跨部门的协作，实施流域综合管理策略，协调上下游、左右岸的利益关系，共同制定和执行保护水资源和生态环境的政策和措施。
+5. **加强公众参与和意识提升**：通过教育和宣传活动，提高公众对保护水资源和生态环境重要性的认识，鼓励和支持民众参与到生态流量的保护行动中来。
+6. **制定和执行相关法律法规**：完善水资源管理和保护的法律法规体系，明确各利益相关方的权利和义务，强化对违规行为的监督和处罚，为保护生态流量提供法制保障。
+通过上述措施的实施，可以有效地保障生态流量，促进水生生态系统的健康稳定，为实现可持续发展奠定基础。</t>
+  </si>
+  <si>
+    <t>土地利用变化对水环境的影响是一个复杂的多维度问题，它不仅关系到地表径流的改变、水质的污染、生态系统的破坏，还与气候变化密切相关。以下是对这些方面的影响分析及具体的管理建议：
+1. **地表径流变化**：
+   - **影响**：城市化和农业开发导致大量自然地表被不透水材料覆盖，这减少了入渗量，增加了地表径流，导致洪涝灾害的频率和强度增加。地表径流的快速增加还可能导致水土流失，加剧河流、湖泊和水库的泥沙沉积。
+   - **建议**：实施低影响开发（LID）策略，比如建设绿色屋顶、雨水花园和透水性铺装，以增加雨水的下渗，减少地表径流。同时，建立和完善雨水收集系统，将收集到的雨水用于城市绿化和非饮用水用途，减轻地表径流压力。
+2. **水质污染**：
+   - **影响**：农业活动中的化肥、农药过量使用，以及城市生活污水和工业废水的直接排放，都会造成水质污染，影响水体的自净能力和生物多样性，甚至影响人类健康。
+   - **建议**：推广精准农业技术，减少化肥和农药的使用，采用更环保的农业实践。在城市地区，加强污水处理设施的建设和管理，确保所有污水在排放前得到有效处理。同时，加强对水体的监测，及时发现并处理污染源。
+3. **生态系统破坏**：
+   - **影响**：土地利用变化导致自然栖息地的破坏和生物多样性的减少，这不仅影响了生态系统的健康，还可能导致某些物种的灭绝。生态系统的破坏也减少了其提供的服务，如清洁水源、碳汇等。
+   - **建议**：实施生态系统恢复项目，如植树造林、湿地恢复等，以提高生态系统的稳定性和恢复力。建立生态保护区，保护重要的自然栖息地和生态系统服务提供区。鼓励公众参与生态建设，提高环境保护意识。
+4. **气候变化的影响**：
+   - **影响**：土地利用变化通过改变地表覆盖，影响地表反照率和热力性质，进而影响局部乃至区域的气候。例如，城市化导致的城市热岛效应加剧了城市地区的温度，而森林的砍伐则减少了碳汇，加剧了全球变暖。
+   - **建议**：在城市规划中考虑气候适应性，比如增加绿色空间，减少热岛效应。在农村地区，推广可持续的土地管理实践，如轮作、保护性耕作等，以减少温室气体排放。同时，加强全球合作，共同应对气候变化的挑战。
+综上所述，土地利用变化对水环境的影响是多方面的，需要采取综合性措施，从政策、技术和公众参与等多个层面协同努力，才能有效缓解这些影响，实现水资源的可持续利用和生态环境的保护。</t>
+  </si>
+  <si>
+    <t>针对气候变化下的适应性管理，尤其是气候变化对水生生态系统的影响，我们可以从以下几个方面提出具体的分析和建议：
+1. **加强监测与预警系统建设**：
+   - 建立和完善水文气象监测网络，包括地面站、遥感卫星等多源数据的集成，实时监测水温、水流、水质等关键指标的变化。
+   - 利用先进的GIS技术和数据分析方法，开发气候和水文模型，预测极端天气事件的发生概率及其对水生生态系统可能造成的影响。
+   - 建立高效的信息发布和预警机制，确保在极端天气事件发生前能够及时通知相关社区和利益相关者，采取预防措施减少损失。
+2. **优化水资源管理**：
+   - 实施综合水资源管理（IWRM）策略，协调上下游、不同部门和行业间的水资源分配，确保生态用水需求得到满足。
+   - 强化节水意识，推广节水技术和措施，如高效灌溉系统、雨水收集系统等，减少水资源的浪费。
+   - 加强跨界水合作，特别是在跨国流域内，通过国际合作机制，共同应对应对气候变化对水资源的挑战。
+3. **推动生态适应性管理**：
+   - 保护和恢复自然水体，如河流、湖泊、湿地等，这些自然水体在调节水量、改善水质、维持生物多样性方面发挥着重要作用。
+   - 采用基于自然的解决方案（NbS），例如建设生态护岸、人工湿地等，增强水生生态系统的自我恢复能力。
+   - 对受气候变化影响严重的区域，实施生态迁移和物种保护计划，帮助水生物适应新的环境条件。
+4. **促进科学研究与技术创新**：
+   - 加大对气候变化背景下水生生态系统动态变化的研究力度，尤其关注长期趋势和短期波动的影响机制。
+   - 鼓励跨学科合作，结合地理学、生物学、化学、社会科学等多学科知识，开展综合评估和对策研究。
+   - 支持新技术的开发和应用，如利用物联网、大数据等现代信息技术，提高监测精度和管理效率。
+通过上述措施的实施，可以在一定程度上缓解气候变化给水生生态系统带来的负面影响，同时提高社会经济系统的韧性，为人类社会的可持续发展奠定基础。</t>
+  </si>
+  <si>
+    <t>### 水生生态系统治理的综合分析和建议
+针对水生生态系统治理的五大核心问题，以下是各学科专家提供的具体分析和建议：
+#### 1. 水质管理和污染控制
+**化学教授的分析和建议**：
+- **工业废水**：
+  - **化学分析**：主要污染物包括重金属（如铅、汞、镉）、有机污染物（如苯、酚类化合物）、酸碱性物质等。这些物质可以通过化学沉淀、吸附、氧化还原反应等方法去除。
+  - **建议**：
+    - 采用化学沉淀法处理含重金属废水，通过加入石灰、硫酸铁等沉淀剂，使重金属形成不溶性沉淀物，易于分离。
+    - 对于含有有机污染物的废水，可以采用高级氧化技术，如Fenton试剂（过氧化氢与硫酸亚铁的混合物）氧化，或者光催化氧化法，利用半导体材料如TiO2在光照下产生自由基，分解有机污染物。
+    - 采用生物处理技术，如活性污泥法或生物滤池，利用微生物的代谢活动分解有机物。
+- **农业化肥和农药**：
+  - **化学分析**：主要污染物包括硝酸盐、磷酸盐、有机磷等物质，导致水体富营养化，促进藻类生长，消耗水中的溶解氧，影响水生生物的生存。
+  - **建议**：
+    - 推广科学施肥，减少化肥的过量使用，提倡使用缓释肥料，减少氮、磷元素的流失。
+    - 采用生物农药替代化学农药，减少对水体的污染。建立农田缓冲带，利用植被过滤和吸收从农田流入水体的污染物。
+    - 定期监测水体中的硝酸盐和磷酸盐含量，采取必要的净化措施，如通过水生植物或藻类吸收，或者使用化学试剂如石灰调节pH值，减少水体富营养化。
+- **城市生活污水**：
+  - **化学分析**：主要污染物包括有机物、氮、磷、悬浮固体等，可以通过生物处理、化学处理和物理处理方法去除。
+  - **建议**：
+    - 建立和完善城市污水处理厂，采用初级处理、二级处理和深度处理相结合的方法，确保污水达标排放。
+    - 采用膜生物反应器（MBR）技术，提高污水处理效率，减少占地面积。
+    - 推广雨水收集和再利用系统，减少城市雨水径流对水体的冲击，同时缓解城市水资源短缺问题。
+#### 2. 生物多样性的保护
+**生物学教授的分析和建议**：
+- **分析**：生物多样性是生态系统稳定性的关键，包括物种多样性、遗传多样性和生态系统多样性。生物多样性的减少会导致生态系统服务功能的下降，如水质净化、洪水调节等。
+- **建议**：
+  - 建立自然保护区和生态廊道，保护重要物种的栖息地。
+  - 实施生态修复项目，恢复受损的生态系统，如湿地恢复、河流生态系统重建。
+  - 促进社区参与，提高公众对生物多样性保护的意识和参与度。
+  - 加强生物多样性研究，建立生物多样性数据库，支持科学决策。
+#### 3. 生态流量的保障
+**生物学教授的分析和建议**：
+- **分析**：生态流量是指维持水生生态系统健康所必需的最小水流条件。不合理的水资源开发和利用，如过度抽水、水库调节，可能导致生态流量不足，影响水生生物的生存和繁殖。
+- **建议**：
+  - 制定科学的水资源管理和调度方案，确保在满足人类用水需求的同时，留出足够的生态流量。
+  - 建立生态流量监测体系，实时监控河流生态状况，及时调整水资源调度。
+  - 开展生态补偿机制，对于因水资源开发而受到影响的地区和社区给予补偿。
+#### 4. 土地利用变化对水环境的影响
+**地理学教授的分析和建议**：
+- **分析**：
+  - **地表径流变化**：城市化和农业开发通常伴随着不透水面的增加，改变地表径流的路径和速度，减少地下水的补给，加速地表水流，导致洪水风险增加。城市化过程中绿地的减少也会导致雨水吸收能力下降。
+  - **水质污染**：农业活动中的化肥、农药使用，以及城市生活污水的排放，增加水体中的氮、磷等营养物质含量，导致富营养化问题，影响水体的生态健康。工业废水的排放直接导致水体的化学污染。
+  - **生态系统破坏**：森林砍伐和湿地的开发减少自然界的碳汇，破坏水循环过程中的重要环节，影响水文循环和生物多样性。
+  - **气候变化的影响**：土地利用变化通过改变地表覆盖类型，影响地表的蒸发和蒸腾作用，进而影响局部和区域的水文气候，加剧或缓解气候变化的影响。
+- **建议**：
+  - **优化土地利用规划**：在城市规划和土地利用规划中，优先保护水源地和重要生态区域，合理布局工业区、居住区和农业区，减少对水环境的负面影响。
+  - **推广绿色基础设施**：城市中增加绿地面积，建设雨水花园、透水性铺装等绿色基础设施，提高城市雨水的自然吸收能力，减少地表径流。
+  - **实施农业面源污染控制**：推广农业节水灌溉技术，合理使用化肥和农药，减少农业面源污染对水质的影响。
+  - **加强水环境保护法规**：完善水环境保护的法律法规，明确不同区域的水质保护标准，加大对违法排污行为的处罚力度。
+  - **公众参与和教育**：提高公众对水环境保护的认识，鼓励公众参与水环境保护活动，如河流清洁、生态修复等。
+#### 5. 气候变化下的适应性管理
+**地理学教授的分析和建议**：
+- **分析**：气候变化导致极端天气事件增多，如洪水、干旱等，对水生生态系统构成严重威胁。气候变化还会影响水温、水流等，影响水生物的生存。
+- **建议**：
+  - 建立气候变化监测和预警系统，提前预测极端天气事件，采取应对措施。
+  - 制定适应气候变化的水资源管理策略，如建设多水源供水系统，提高水资源利用效率。
+  - 开展生态适应性管理，如调整物种分布、优化生态结构，提高生态系统对气候变化的适应能力。
+  - 加强气候变化下的科学研究，为政策制定提供科学依据。
+综上所述，水生生态系统治理需要多学科、多部门的协同合作，通过科学的管理和技术手段，保护水环境，维护生态平衡。</t>
+  </si>
+  <si>
+    <t>从物理学的角度来看，水生生态系统治理可以考虑引入和优化多个变量、机制或模型，以提高水质管理和污染控制的效率。以下是几个可能的方向：
+1. **流体力学模型**：通过建立精确的流体力学模型，可以更好地理解水流如何在水体中分布以及污染物如何随水流扩散。这些模型可以使用计算流体力学（CFD）技术，考虑如水流速度、方向、温度及悬浮物质等因素，从而预测污染物的迁移路径和速度，为污染控制提供科学依据。
+2. **热力学与能量转换**：水体中的温度变化对生态系统有着重要影响，通过热力学模型可以研究水体温度的变化规律及其对水质的影响。此外，利用太阳能等可再生能源技术进行水处理，不仅能够减少处理过程中的能耗，而且有助于降低处理成本。
+3. **界面物理与胶体化学**：水生生态系统中存在大量的胶体粒子，这些粒子的行为对水质有着直接的影响。通过研究这些粒子在水-气界面、水-土界面等处的吸附、凝聚等行为，可以开发新的污染物质去除技术和方法。
+4. **材料科学与纳米技术**：利用新型材料，特别是纳米材料，可以开发高效的吸附剂、催化剂和过滤材料，用于去除水中的污染物。例如，纳米铁粉可以有效去除水中的重金属离子，而某些特定的纳米材料还可以用于光催化降解有机污染物。
+5. **复杂系统理论**：水生生态系统是一个典型的复杂适应系统，其中包含了多种非线性相互作用。应用复杂系统理论，可以从整体上理解生态系统中各组成部分之间的关系，预测生态系统对外界干扰的响应，为生态系统管理和保护提供指导。
+6. **遥感与地理信息系统（GIS）技术**：结合遥感技术和GIS，可以监测大范围水体的水质状况，包括水温、叶绿素浓度、浊度等指标。这些数据对于识别污染源、评估治理效果具有重要意义。
+7. **波动光学与光谱分析**：利用光谱分析技术，可以实现对水中污染物的快速、准确检测。例如，拉曼光谱技术可以用于检测水中的微塑料和某些有机污染物，而紫外可见光谱法则常用于测定水中的化学需氧量（COD）等参数。
+综上所述，从物理学的视角出发，通过引入流体力学模型、利用热力学原理、研究界面物理与胶体化学、开发新材料与纳米技术、应用复杂系统理论以及结合遥感与GIS技术等手段，可以为水生生态系统的治理提供新的思路和方法，从而提高水质管理和污染控制的效率。</t>
+  </si>
+  <si>
+    <t>在水生生态系统治理中，数学模型和方法可以提供强大的工具来优化治理策略和量化治理效果。以下是一些可以应用的数学模型和方法：
+1. **微分方程模型**：微分方程是描述水生生态系统中物质动态变化的基本工具。通过建立水体中污染物浓度变化的微分方程模型，可以预测污染物在水体中的扩散、降解和积累过程。例如，使用偏微分方程可以模拟污染物的时空分布，而常微分方程则可以用于模拟水生生物群落中的物种相互作用和能量流动。
+2. **优化模型**：优化模型可以帮助我们找到最有效的治理方案。例如，可以使用线性规划或非线性规划来确定最小成本的污染控制策略，或者最优化水体恢复过程中的资源分配。这类模型通常需要考虑多个目标，如最小化成本、最大化水质改善效果等，因此多目标优化方法（如帕累托最优解）也非常适用。
+3. **概率论与统计分析**：概率论和统计学方法可以用于评估治理措施的不确定性和风险。通过构建不确定性分析模型，可以估计不同治理方案成功的概率，以及可能的结果范围。此外，统计学方法还可以用于分析水质监测数据，识别污染物来源，评估治理效果。
+4. **网络分析**：水生生态系统中的物质流动和能量交换可以用网络模型来描述。通过构建生态网络模型，可以分析物种之间的相互依赖关系，以及生态系统对外部扰动的响应。图论中的中心性指标可以帮助识别关键物种或关键节点，为保护措施提供依据。
+5. **机器学习与数据挖掘**：随着环境监测技术的发展，积累了大量的水质数据和生态数据。利用机器学习和数据挖掘技术，可以从这些数据中提取有用的信息，预测水质变化趋势，识别潜在的污染源，甚至指导治理策略的选择。
+6. **系统动力学模型**：系统动力学是一种用于分析复杂系统行为的方法，特别适用于描述水生生态系统中多因素之间的动态相互作用。通过建立系统动力学模型，可以模拟不同管理和政策干预下的生态系统响应，为决策者提供科学依据。
+7. **博弈论**：在治理水生生态系统时，不同利益相关者之间可能存在冲突。博弈论可以用来分析这些冲突，设计激励机制，以促进合作和共同治理。例如，可以设计支付机制，鼓励农民减少化肥使用，或者设计市场机制，以经济手段促进水资源的可持续利用。
+综合上述数学模型和方法，可以为水生生态系统的治理提供一个全面、系统的科学支持体系，不仅能够提高治理的效率和效果，还可以为未来可能出现的新挑战提供预测和应对策略。</t>
+  </si>
+  <si>
+    <t>在水生生态系统治理中，从人工智能的角度出发，可以应用多种技术手段和方法来优化治理策略和提高治理效率。以下是一些关键的AI技术和方法：
+1. **数据驱动的预测模型**：利用机器学习算法，如随机森林、支持向量机、神经网络等，基于历史水质数据和环境因素（如温度、降雨量、风速等）建立预测模型，预测水质变化趋势和污染物扩散路径。这些模型可以帮助治理机构提前采取措施，减少污染事件的发生。
+2. **智能监测系统**：通过部署物联网（IoT）传感器网络，实时监测水质参数（如pH值、溶解氧、电导率等）和生态指标（如生物多样性、鱼类活动等）。结合边缘计算技术，可以在数据收集点进行初步处理和异常检测，减少数据传输负担，并及时发现潜在问题。
+3. **自适应控制策略**：开发基于强化学习的自适应控制系统，根据实时监测数据动态调整治理措施，如自动调节水质净化设备的工作参数、优化污水排放调度等。这种方法可以确保治理措施更加精准和高效，减少资源浪费。
+4. **多目标优化**：利用多目标优化算法（如遗传算法、粒子群优化等），综合考虑水质改善、生态恢复、经济成本等多方面因素，寻找最优治理方案。这有助于在不同利益相关者之间达成共识，实现可持续治理。
+5. **知识图谱与专家系统**：构建水生生态系统治理领域的知识图谱，整合不同学科的知识和经验，为治理决策提供全面的信息支持。结合专家系统，可以实现基于规则的自动决策支持，提高治理决策的科学性和可靠性。
+6. **虚拟仿真与情景分析**：利用深度学习和计算机视觉技术，构建水生生态系统的虚拟仿真模型，模拟不同治理措施的效果。通过情景分析，可以评估不同方案的可行性和潜在影响，为决策提供依据。
+7. **公众参与与数据众包**：通过移动应用和社交媒体平台，鼓励公众参与水质监测和环境保护活动，收集大量分散的环境数据。利用数据众包技术，可以提高数据的多样性和准确性，增强公众的环保意识。
+8. **跨学科协作平台**：开发跨学科协作平台，促进不同领域的专家（如化学、生物、物理、数学等）之间的交流与合作。通过共享数据、模型和方法，可以推动跨学科研究，发现新的治理思路和技术。
+通过以上技术手段和方法的应用，可以显著提高水生生态系统治理的科学性和效率，实现更加精准、可持续的治理目标。</t>
+  </si>
+  <si>
+    <t>### 水生生态系统治理的补充性分析报告
+#### 1. 物理学视角
+**1.1 流体力学模型**
+通过建立精确的流体力学模型，可以更好地理解水流如何在水体中分布以及污染物如何随水流扩散。这些模型可以使用计算流体力学（CFD）技术，考虑如水流速度、方向、温度及悬浮物质等因素，从而预测污染物的迁移路径和速度，为污染控制提供科学依据。例如，可以利用CFD技术模拟河流中的污染物扩散过程，为制定污染物排放标准提供依据。
+**1.2 热力学与能量转换**
+水体中的温度变化对生态系统有着重要影响。通过热力学模型可以研究水体温度的变化规律及其对水质的影响。利用太阳能等可再生能源技术进行水处理，不仅能够减少处理过程中的能耗，而且有助于降低处理成本。例如，太阳能驱动的水处理系统可以在不增加额外能耗的情况下，有效去除水中的有机污染物和重金属离子。
+**1.3 界面物理与胶体化学**
+水生生态系统中存在大量的胶体粒子，这些粒子的行为对水质有着直接的影响。通过研究这些粒子在水-气界面、水-土界面等处的吸附、凝聚等行为，可以开发新的污染物质去除技术和方法。例如，利用电化学方法可以有效去除水中的悬浮颗粒物和重金属离子，提高水质。
+**1.4 材料科学与纳米技术**
+利用新型材料，特别是纳米材料，可以开发高效的吸附剂、催化剂和过滤材料，用于去除水中的污染物。例如，纳米铁粉可以有效去除水中的重金属离子，而某些特定的纳米材料还可以用于光催化降解有机污染物。此外，纳米材料的高比表面积和高反应活性使其在水处理领域具有广阔的应用前景。
+**1.5 复杂系统理论**
+水生生态系统是一个典型的复杂适应系统，其中包含了多种非线性相互作用。应用复杂系统理论，可以从整体上理解生态系统中各组成部分之间的关系，预测生态系统对外界干扰的响应，为生态系统管理和保护提供指导。例如，通过建立生态系统动力学模型，可以预测不同治理措施对生态系统的影响，为决策提供科学依据。
+**1.6 遥感与地理信息系统（GIS）技术**
+结合遥感技术和GIS，可以监测大范围水体的水质状况，包括水温、叶绿素浓度、浊度等指标。这些数据对于识别污染源、评估治理效果具有重要意义。例如，通过卫星遥感技术可以实时监测湖泊的富营养化程度，为治理措施提供及时反馈。
+**1.7 波动光学与光谱分析**
+利用光谱分析技术，可以实现对水中污染物的快速、准确检测。例如，拉曼光谱技术可以用于检测水中的微塑料和某些有机污染物，而紫外可见光谱法则常用于测定水中的化学需氧量（COD）等参数。这些技术可以大大提高水质监测的效率和准确性。
+#### 2. 数学视角
+**2.1 微分方程模型**
+微分方程是描述水生生态系统中物质动态变化的基本工具。通过建立水体中污染物浓度变化的微分方程模型，可以预测污染物在水体中的扩散、降解和积累过程。例如，使用偏微分方程可以模拟污染物的时空分布，而常微分方程则可以用于模拟水生生物群落中的物种相互作用和能量流动。这些模型可以为污染物的治理提供科学依据。
+**2.2 优化模型**
+优化模型可以帮助我们找到最有效的治理方案。例如，可以使用线性规划或非线性规划来确定最小成本的污染控制策略，或者最优化水体恢复过程中的资源分配。这类模型通常需要考虑多个目标，如最小化成本、最大化水质改善效果等，因此多目标优化方法（如帕累托最优解）也非常适用。通过优化模型，可以为治理机构提供科学的决策支持。
+**2.3 概率论与统计分析**
+概率论和统计学方法可以用于评估治理措施的不确定性和风险。通过构建不确定性分析模型，可以估计不同治理方案成功的概率，以及可能的结果范围。此外，统计学方法还可以用于分析水质监测数据，识别污染物来源，评估治理效果。例如，通过贝叶斯统计方法可以评估不同治理措施的有效性，为决策提供依据。
+**2.4 网络分析**
+水生生态系统中的物质流动和能量交换可以用网络模型来描述。通过构建生态网络模型，可以分析物种之间的相互依赖关系，以及生态系统对外部扰动的响应。图论中的中心性指标可以帮助识别关键物种或关键节点，为保护措施提供依据。例如，通过网络分析可以识别出对生态系统稳定性影响最大的物种，为保护措施提供科学支持。
+**2.5 机器学习与数据挖掘**
+随着环境监测技术的发展，积累了大量的水质数据和生态数据。利用机器学习和数据挖掘技术，可以从这些数据中提取有用的信息，预测水质变化趋势，识别潜在的污染源，甚至指导治理策略的选择。例如，通过聚类分析可以识别出水质变化的关键因素，为治理措施提供科学依据。
+**2.6 系统动力学模型**
+系统动力学是一种用于分析复杂系统行为的方法，特别适用于描述水生生态系统中多因素之间的动态相互作用。通过建立系统动力学模型，可以模拟不同管理和政策干预下的生态系统响应，为决策者提供科学依据。例如，通过系统动力学模型可以预测不同治理措施对水质的影响，为决策提供支持。
+**2.7 博弈论**
+在治理水生生态系统时，不同利益相关者之间可能存在冲突。博弈论可以用来分析这些冲突，设计激励机制，以促进合作和共同治理。例如，可以设计支付机制，鼓励农民减少化肥使用，或者设计市场机制，以经济手段促进水资源的可持续利用。通过博弈论，可以为治理提供有效的激励机制，促进多方合作。
+#### 3. 人工智能视角
+**3.1 数据驱动的预测模型**
+利用机器学习算法，如随机森林、支持向量机、神经网络等，基于历史水质数据和环境因素（如温度、降雨量、风速等）建立预测模型，预测水质变化趋势和污染物扩散路径。这些模型可以帮助治理机构提前采取措施，减少污染事件的发生。例如，通过神经网络模型可以预测河流中的污染物浓度变化，为治理措施提供科学依据。
+**3.2 智能监测系统**
+通过部署物联网（IoT）传感器网络，实时监测水质参数（如pH值、溶解氧、电导率等）和生态指标（如生物多样性、鱼类活动等）。结合边缘计算技术，可以在数据收集点进行初步处理和异常检测，减少数据传输负担，并及时发现潜在问题。例如，通过边缘计算技术可以实现实时水质监测，及时发现水质异常，为治理措施提供及时反馈。
+**3.3 自适应控制策略**
+开发基于强化学习的自适应控制系统，根据实时监测数据动态调整治理措施，如自动调节水质净化设备的工作参数、优化污水排放调度等。这种方法可以确保治理措施更加精准和高效，减少资源浪费。例如，通过强化学习算法可以实现水质净化设备的智能控制，提高治理效果。
+**3.4 多目标优化**
+利用多目标优化算法（如遗传算法、粒子群优化等），综合考虑水质改善、生态恢复、经济成本等多方面因素，寻找最优治理方案。这有助于在不同利益相关者之间达成共识，实现可持续治理。例如，通过多目标优化算法可以找到水质改善和经济成本之间的最优平衡，为治理提供科学依据。
+**3.5 知识图谱与专家系统**
+构建水生生态系统治理领域的知识图谱，整合不同学科的知识和经验，为治理决策提供全面的信息支持。结合专家系统，可以实现基于规则的自动决策支持，提高治理决策的科学性和可靠性。例如，通过知识图谱可以整合不同学科的知识，为治理决策提供全面的信息支持。
+**3.6 虚拟仿真与情景分析**
+利用深度学习和计算机视觉技术，构建水生生态系统的虚拟仿真模型，模拟不同治理措施的效果。通过情景分析，可以评估不同方案的可行性和潜在影响，为决策提供依据。例如，通过虚拟仿真技术可以模拟不同治理措施对水质的影响，为决策提供科学依据。
+**3.7 公众参与与数据众包**
+通过移动应用和社交媒体平台，鼓励公众参与水质监测和环境保护活动，收集大量分散的环境数据。利用数据众包技术，可以提高数据的多样性和准确性，增强公众的环保意识。例如，通过移动应用可以鼓励公众参与水质监测，提高数据的多样性和准确性。
+**3.8 跨学科协作平台**
+开发跨学科协作平台，促进不同领域的专家（如化学、生物、物理、数学等）之间的交流与合作。通过共享数据、模型和方法，可以推动跨学科研究，发现新的治理思路和技术。例如，通过跨学科协作平台可以促进不同领域的专家之间的交流与合作，推动新的治理技术的研发。
+### 结论
+水生生态系统的治理是一个复杂的多学科问题，需要综合运用物理学、数学和人工智能等多学科的知识和技术。通过建立精确的流体力学模型、优化治理方案、利用机器学习和数据挖掘技术等手段，可以更科学、高效地治理水生生态系统，保护水资源和生态环境。跨学科合作和公众参与也是实现可持续治理的重要途径。</t>
+  </si>
+  <si>
+    <t># 项目申请书
+## 摘要
+本项目旨在通过多学科的综合研究，解决水生生态系统面临的五大核心问题：水质管理和污染控制、生物多样性的保护、生态流量的保障、土地利用变化对水环境的影响、气候变化下的适应性管理。通过科学管理和技术手段，构建一个系统性的、具备操作性的科学解决方案，以实现水生生态系统的可持续发展。
+## 研究背景和意义
+水生生态系统是地球生态系统的重要组成部分，对维持生物多样性、调节气候、提供水源等方面具有重要作用。然而，随着工业化、城市化和农业活动的加剧，水生生态系统面临着严重的威胁。水体污染、生物多样性下降、生态流量不足、土地利用变化和气候变化等问题日益突出，严重影响了水生生态系统的健康和功能。因此，开展水生生态系统治理研究，提出科学的解决方案，具有重要的科学意义和现实价值。
+## 研究内容
+1. **水质管理和污染控制**
+   - 工业废水处理技术与方法
+   - 农业化肥和农药对水体的污染及控制措施
+   - 城市生活污水处理技术
+2. **生物多样性的保护**
+   - 建立自然保护区和生态廊道
+   - 实施生态修复项目
+   - 促进社区参与和公众教育
+3. **生态流量的保障**
+   - 制定水资源管理和调度方案
+   - 建立生态流量监测体系
+   - 开展生态补偿机制
+4. **土地利用变化对水环境的影响**
+   - 优化土地利用规划
+   - 推广绿色基础设施
+   - 实施农业面源污染控制
+   - 加强水环境保护法规
+5. **气候变化下的适应性管理**
+   - 建立气候变化监测和预警系统
+   - 制定适应气候变化的水资源管理策略
+   - 开展生态适应性管理
+   - 加强气候变化下的科学研究
+## 拟解决的科学问题
+1. **如何有效去除工业废水中的重金属和有机污染物？**
+2. **如何减少农业化肥和农药对水体的污染？**
+3. **如何通过生物处理技术提高城市生活污水处理效率？**
+4. **如何通过建立自然保护区和生态廊道保护生物多样性？**
+5. **如何恢复受损的生态系统，提高生态流量？**
+6. **如何优化土地利用规划，减少对水环境的负面影响？**
+7. **如何通过绿色基础设施提高城市雨水的自然吸收能力？**
+8. **如何通过适应性管理提高水生生态系统对气候变化的适应能力？**
+## 拟提出的技术路线
+### 1. 水质管理和污染控制
+- **工业废水处理技术与方法**
+  - **化学沉淀法**：使用石灰、硫酸铁等沉淀剂，去除重金属。
+  - **高级氧化技术**：使用Fenton试剂或光催化氧化法，分解有机污染物。
+  - **生物处理技术**：采用活性污泥法或生物滤池，利用微生物分解有机物。
+- **农业化肥和农药对水体的污染及控制措施**
+  - **科学施肥**：推广缓释肥料，减少氮、磷流失。
+  - **生物农药**：使用生物农药替代化学农药，减少污染。
+  - **农田缓冲带**：建立植被缓冲带，过滤和吸收污染物。
+  - **定期监测**：监测水体中的硝酸盐和磷酸盐含量，采取净化措施。
+- **城市生活污水处理技术**
+  - **污水处理厂**：建立和完善城市污水处理厂，采用初级处理、二级处理和深度处理相结合的方法。
+  - **膜生物反应器**：采用MBR技术，提高污水处理效率。
+  - **雨水收集和再利用系统**：推广雨水收集和再利用系统，减少城市雨水径流。
+### 2. 生物多样性的保护
+- **建立自然保护区和生态廊道**
+  - **保护区规划**：选择重要物种的栖息地，建立自然保护区。
+  - **生态廊道建设**：连接不同的自然保护区，形成生态廊道。
+- **实施生态修复项目**
+  - **湿地恢复**：通过人工种植水生植物，恢复湿地生态系统。
+  - **河流生态系统重建**：修复受损的河流生态系统，恢复自然水文条件。
+- **促进社区参与和公众教育**
+  - **社区参与**：组织社区参与生物多样性保护活动。
+  - **公众教育**：开展生物多样性保护的宣传教育活动，提高公众意识。
+### 3. 生态流量的保障
+- **制定水资源管理和调度方案**
+  - **科学规划**：制定科学的水资源管理和调度方案，确保生态流量。
+  - **监测体系**：建立生态流量监测体系，实时监控河流生态状况。
+- **生态补偿机制**
+  - **补偿机制**：对于因水资源开发而受到影响的地区和社区给予补偿。
+### 4. 土地利用变化对水环境的影响
+- **优化土地利用规划**
+  - **规划优先**：在城市规划和土地利用规划中，优先保护水源地和重要生态区域。
+  - **合理布局**：合理布局工业区、居住区和农业区，减少对水环境的负面影响。
+- **推广绿色基础设施**
+  - **增加绿地**：城市中增加绿地面积，提高雨水吸收能力。
+  - **雨水花园**：建设雨水花园，减少地表径流。
+- **实施农业面源污染控制**
+  - **节水灌溉**：推广节水灌溉技术，减少农业用水。
+  - **合理使用化肥和农药**：合理使用化肥和农药，减少污染。
+- **加强水环境保护法规**
+  - **完善法规**：完善水环境保护的法律法规，明确水质保护标准。
+  - **加大处罚**：加大对违法排污行为的处罚力度。
+### 5. 气候变化下的适应性管理
+- **建立气候变化监测和预警系统**
+  - **监测系统**：建立气候变化监测和预警系统，预测极端天气事件。
+  - **应对措施**：提前采取应对措施，减少损失。
+- **制定适应气候变化的水资源管理策略**
+  - **多水源系统**：建设多水源供水系统，提高水资源利用效率。
+  - **蓄洪调峰**：通过水库调节，应对洪水和干旱。
+- **开展生态适应性管理**
+  - **物种调整**：调整物种分布，优化生态结构。
+  - **提高适应能力**：提高生态系统对气候变化的适应能力。
+- **加强气候变化下的科学研究**
+  - **科学研究**：开展气候变化下的科学研究，为政策制定提供科学依据。
+  - **数据支持**：建立气候变化数据库，支持决策。
+## 预期成果
+1. **技术成果**：开发出一系列高效的水质管理和污染控制技术，如化学沉淀法、高级氧化技术和生物处理技术。
+2. **生态效益**：通过建立自然保护区和生态廊道，恢复受损生态系统，保护生物多样性。
+3. **社会影响**：提高公众对水环境保护的认识，促进社区参与。
+4. **政策建议**：提出科学的水资源管理和调度方案，完善水环境保护法规。
+5. **适应性管理**：建立气候变化监测和预警系统，提高水生生态系统对气候变化的适应能力。
+通过本项目的实施，将为水生生态系统的可持续发展提供科学依据和技术支持，为保护和改善水环境做出积极贡献。</t>
   </si>
 </sst>
 </file>
@@ -818,10 +1015,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -832,52 +1029,52 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -885,13 +1082,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -899,13 +1096,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -916,52 +1113,52 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -969,13 +1166,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -983,55 +1180,55 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1039,13 +1236,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1053,13 +1250,13 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
